--- a/public/preprocessing/@sandiuno.xlsx
+++ b/public/preprocessing/@sandiuno.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>21870</v>
+        <v>30448</v>
       </c>
       <c r="C2" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>selamat pagi indonesia pagi ini bergerak menuju likupang sebuah kawasan di dekat manado sulawesi utara yang men</t>
+          <t>kami sangat optimis bahwa kebangkitan ekonomi masyarakat bali akan segera mulai terasa khususnya di sektor pariwis</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['selamat', 'pagi', 'indonesia', 'pagi', 'ini', 'bergerak', 'menuju', 'likupang', 'sebuah', 'kawasan', 'di', 'dekat', 'manado', 'sulawesi', 'utara', 'yang', 'men']</t>
+          <t>['kami', 'sangat', 'optimis', 'bahwa', 'kebangkitan', 'ekonomi', 'masyarakat', 'bali', 'akan', 'segera', 'mulai', 'terasa', 'khususnya', 'di', 'sektor', 'pariwis']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['kami', 'sangat', 'optimis', 'bahwa', 'kebangkitan', 'ekonomi', 'masyarakat', 'bali', 'akan', 'segera', 'mulai', 'terasa', 'khususnya', 'di', 'sektor', 'pariwis']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['selamat', 'pagi', 'indonesia', 'pagi', 'bergerak', 'likupang', 'kawasan', 'manado', 'sulawesi', 'utara', 'men']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['selamat', 'pagi', 'indonesia', 'pagi', 'gerak', 'likupang', 'kawasan', 'manado', 'sulawesi', 'utara', 'men']</t>
+          <t>['optimis', 'kebangkitan', 'ekonomi', 'masyarakat', 'bali', 'sektor', 'pariwis']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['optimis', 'bangkit', 'ekonomi', 'masyarakat', 'bal', 'sektor', 'pariwis']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21871</v>
+        <v>30449</v>
       </c>
       <c r="C3" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>kita juga akan mendorong adanya paket wisata menarik ke destinasi pariwisata super prioritas agar bisa lebih dipe</t>
+          <t>bapak presiden menyampaikan harapannya bahwa dengan fokus di tiga zona hijau yakni ubud nusa dua dan sanur kebang</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['kita', 'juga', 'akan', 'mendorong', 'adanya', 'paket', 'wisata', 'menarik', 'ke', 'destinasi', 'pariwisata', 'super', 'prioritas', 'agar', 'bisa', 'lebih', 'dipe']</t>
+          <t>['bapak', 'presiden', 'menyampaikan', 'harapannya', 'bahwa', 'dengan', 'fokus', 'di', 'tiga', 'zona', 'hijau', 'yakni', 'ubud', 'nusa', 'dua', 'dan', 'sanur', 'kebang']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['bapak', 'presiden', 'menyampaikan', 'harapannya', 'bahwa', 'dengan', 'fokus', 'di', 'tiga', 'zona', 'hijau', 'yakni', 'ubud', 'nusa', 'dua', 'dan', 'sanur', 'kebang']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['mendorong', 'paket', 'wisata', 'menarik', 'destinasi', 'pariwisata', 'super', 'prioritas', 'dipe']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['dorong', 'paket', 'wisata', 'tarik', 'destinasi', 'pariwisata', 'super', 'prioritas', 'dipe']</t>
+          <t>['presiden', 'harapannya', 'fokus', 'zona', 'hijau', 'ubud', 'nusa', 'sanur', 'kebang']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['presiden', 'harap', 'fokus', 'zona', 'hijau', 'ubud', 'nusa', 'sanur', 'bang']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>21872</v>
+        <v>30450</v>
       </c>
       <c r="C4" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>sudah saatnya kita mengaktifkan kembali kerja sama yang baru di bidang pariwisata dan ekonomi kreatif antara kedua</t>
+          <t>vaksinasi ini ditujukan kepada para pelayan publik tokohtokoh agama budayawan dan lingkungan masyarakat termasu</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['sudah', 'saatnya', 'kita', 'mengaktifkan', 'kembali', 'kerja', 'sama', 'yang', 'baru', 'di', 'bidang', 'pariwisata', 'dan', 'ekonomi', 'kreatif', 'antara', 'kedua']</t>
+          <t>['vaksinasi', 'ini', 'ditujukan', 'kepada', 'para', 'pelayan', 'publik', 'tokohtokoh', 'agama', 'budayawan', 'dan', 'lingkungan', 'masyarakat', 'termasu']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['vaksinasi', 'ini', 'ditujukan', 'kepada', 'para', 'pelayan', 'publik', 'tokohtokoh', 'agama', 'budayawan', 'dan', 'lingkungan', 'masyarakat', 'termasuk']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['mengaktifkan', 'kerja', 'bidang', 'pariwisata', 'ekonomi', 'kreatif']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['aktif', 'kerja', 'bidang', 'pariwisata', 'ekonomi', 'kreatif']</t>
+          <t>['vaksinasi', 'pelayan', 'publik', 'tokohtokoh', 'agama', 'budayawan', 'lingkungan', 'masyarakat']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['vaksinasi', 'layan', 'publik', 'tokohtokoh', 'agama', 'budayawan', 'lingkung', 'masyarakat']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>21873</v>
+        <v>30451</v>
       </c>
       <c r="C5" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>kerjasama tersebut meliputi pertukaran data informasi studi penilitian pendidikan pelatihan promosi dan pertem</t>
+          <t>vaksinasi gratis pada hari ini diikuti oleh kurang lebih orang yang pemberiannya dilakukan bertahap dengan mene</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['kerjasama', 'tersebut', 'meliputi', 'pertukaran', 'data', 'informasi', 'studi', 'penilitian', 'pendidikan', 'pelatihan', 'promosi', 'dan', 'pertem']</t>
+          <t>['vaksinasi', 'gratis', 'pada', 'hari', 'ini', 'diikuti', 'oleh', 'kurang', 'lebih', 'orang', 'yang', 'pemberiannya', 'dilakukan', 'bertahap', 'dengan', 'mene']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['vaksinasi', 'gratis', 'pada', 'hari', 'ini', 'diikuti', 'oleh', 'kurang', 'lebih', 'orang', 'yang', 'pemberiannya', 'dilakukan', 'bertahap', 'dengan', 'mene']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['kerjasama', 'meliputi', 'pertukaran', 'data', 'informasi', 'studi', 'penilitian', 'pendidikan', 'pelatihan', 'promosi', 'pertem']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['kerjasama', 'liput', 'tukar', 'data', 'informasi', 'studi', 'penilitian', 'didik', 'latih', 'promosi', 'tem']</t>
+          <t>['vaksinasi', 'gratis', 'diikuti', 'orang', 'pemberiannya', 'bertahap', 'mene']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['vaksinasi', 'gratis', 'ikut', 'orang', 'beri', 'tahap', 'mene']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>21874</v>
+        <v>30452</v>
       </c>
       <c r="C6" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>pagi ini melakukan rapat dengan duta besar uzbekistan untuk indonesia mr ulugbek rosukulov indonesia dan uzbeki</t>
+          <t>hari ini bersama menteri kesehatan bapak budi gunadi sadikin mendampingi bapak presiden meninjau pelaksa</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['pagi', 'ini', 'melakukan', 'rapat', 'dengan', 'duta', 'besar', 'uzbekistan', 'untuk', 'indonesia', 'mr', 'ulugbek', 'rosukulov', 'indonesia', 'dan', 'uzbeki']</t>
+          <t>['hari', 'ini', 'bersama', 'menteri', 'kesehatan', 'bapak', 'budi', 'gunadi', 'sadikin', 'mendampingi', 'bapak', 'presiden', 'meninjau', 'pelaksa']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['hari', 'ini', 'bersama', 'menteri', 'kesehatan', 'bapak', 'budi', 'gunadi', 'sadikin', 'mendampingi', 'bapak', 'presiden', 'meninjau', 'pelaksa']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['pagi', 'rapat', 'duta', 'uzbekistan', 'indonesia', 'mr', 'ulugbek', 'rosukulov', 'indonesia', 'uzbeki']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['pagi', 'rapat', 'duta', 'uzbekistan', 'indonesia', 'mr', 'ulugbek', 'rosukulov', 'indonesia', 'uzbeki']</t>
+          <t>['menteri', 'kesehatan', 'budi', 'gunadi', 'sadikin', 'mendampingi', 'presiden', 'meninjau', 'pelaksa']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['menteri', 'sehat', 'budi', 'gunadi', 'sadikin', 'damping', 'presiden', 'tinjau', 'laksa']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>21875</v>
+        <v>30453</v>
       </c>
       <c r="C7" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>selain itu terkait perguruan tinggi negeri pariwisata ptnp kita ingin pastikan kualitas pendidikannya berstanda</t>
+          <t>bersiap untuk menuju lokasi vaksinasi massal di puri agung ubud</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['selain', 'itu', 'terkait', 'perguruan', 'tinggi', 'negeri', 'pariwisata', 'ptnp', 'kita', 'ingin', 'pastikan', 'kualitas', 'pendidikannya', 'berstanda']</t>
+          <t>['bersiap', 'untuk', 'menuju', 'lokasi', 'vaksinasi', 'massal', 'di', 'puri', 'agung', 'ubud']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['bersiap', 'untuk', 'menuju', 'lokasi', 'vaksinasi', 'massal', 'di', 'puri', 'agung', 'ubud']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['terkait', 'perguruan', 'negeri', 'pariwisata', 'ptnp', 'pastikan', 'kualitas', 'pendidikannya', 'berstanda']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['kait', 'guru', 'negeri', 'pariwisata', 'ptnp', 'pasti', 'kualitas', 'didik', 'berstanda']</t>
+          <t>['lokasi', 'vaksinasi', 'massal', 'puri', 'agung', 'ubud']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['lokasi', 'vaksinasi', 'massal', 'puri', 'agung', 'ubud']</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>21876</v>
+        <v>30454</v>
       </c>
       <c r="C8" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>sore ini menggelar rapat dengan menteri pendidikan dan kebudayaan mas membahas beberapa hal yang</t>
+          <t>dan saya juga terus melakukan koordinasi dan kolaborasi dengan pemerintah provinsi bali demi mempercepat pemulihan</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['sore', 'ini', 'menggelar', 'rapat', 'dengan', 'menteri', 'pendidikan', 'dan', 'kebudayaan', 'mas', 'membahas', 'beberapa', 'hal', 'yang']</t>
+          <t>['dan', 'saya', 'juga', 'terus', 'melakukan', 'koordinasi', 'dan', 'kolaborasi', 'dengan', 'pemerintah', 'provinsi', 'bali', 'demi', 'mempercepat', 'pemulihan']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['dan', 'saya', 'juga', 'terus', 'melakukan', 'koordinasi', 'dan', 'kolaborasi', 'dengan', 'pemerintah', 'provinsi', 'bali', 'demi', 'mempercepat', 'pemulihan']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['sore', 'menggelar', 'rapat', 'menteri', 'pendidikan', 'kebudayaan', 'mas', 'membahas']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['sore', 'gelar', 'rapat', 'menteri', 'didik', 'budaya', 'mas', 'bahas']</t>
+          <t>['koordinasi', 'kolaborasi', 'pemerintah', 'provinsi', 'bali', 'mempercepat', 'pemulihan']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['koordinasi', 'kolaborasi', 'perintah', 'provinsi', 'bal', 'cepat', 'pulih']</t>
         </is>
       </c>
     </row>
@@ -727,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>21877</v>
+        <v>30455</v>
       </c>
       <c r="C9" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>namun onboarding digitaliasi saja belumlah cukup tantangan berikutnya adalah bagaimana bisa membantu umkm dan pel</t>
+          <t xml:space="preserve">oleh karena itu saya menyampaikan bahwa program vaksinasi saja tidak cukup kita harus galakkan testing tracing </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['namun', 'onboarding', 'digitaliasi', 'saja', 'belumlah', 'cukup', 'tantangan', 'berikutnya', 'adalah', 'bagaimana', 'bisa', 'membantu', 'umkm', 'dan', 'pel']</t>
+          <t>['oleh', 'karena', 'itu', 'saya', 'menyampaikan', 'bahwa', 'program', 'vaksinasi', 'saja', 'tidak', 'cukup', 'kita', 'harus', 'galakkan', 'testing', 'tracing']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['oleh', 'karena', 'itu', 'saya', 'menyampaikan', 'bahwa', 'program', 'vaksinasi', 'saja', 'tidak', 'cukup', 'kita', 'harus', 'galakkan', 'testing', 'tracing']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['onboarding', 'digitaliasi', 'tantangan', 'membantu', 'umkm', 'pel']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['onboarding', 'digitaliasi', 'tantang', 'bantu', 'umkm', 'pel']</t>
+          <t>['program', 'vaksinasi', 'galakkan', 'testing', 'tracing']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['program', 'vaksinasi', 'galak', 'testing', 'tracing']</t>
         </is>
       </c>
     </row>
@@ -763,34 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>21878</v>
+        <v>30456</v>
       </c>
       <c r="C10" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>gerakan nasional bangga buatan indonesia yang dicanangkan pada tahun terbukti berhasil membantu umkm untuk ban</t>
+          <t>bali adalah destinasi utama wisata di indonesia memiliki brand dan pasar wisman terbaik pintu masuk utama wisataw</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['gerakan', 'nasional', 'bangga', 'buatan', 'indonesia', 'yang', 'dicanangkan', 'pada', 'tahun', 'terbukti', 'berhasil', 'membantu', 'umkm', 'untuk', 'ban']</t>
+          <t>['bali', 'adalah', 'destinasi', 'utama', 'wisata', 'di', 'indonesia', 'memiliki', 'brand', 'dan', 'pasar', 'wisman', 'terbaik', 'pintu', 'masuk', 'utama', 'wisataw']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['bali', 'adalah', 'destinasi', 'utama', 'wisata', 'di', 'indonesia', 'memiliki', 'merek', 'dan', 'pasar', 'wisman', 'terbaik', 'pintu', 'masuk', 'utama', 'wisataw']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['gerakan', 'nasional', 'bangga', 'buatan', 'indonesia', 'dicanangkan', 'terbukti', 'berhasil', 'membantu', 'umkm', 'ban']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['gera', 'nasional', 'bangga', 'buat', 'indonesia', 'canang', 'bukti', 'hasil', 'bantu', 'umkm', 'ban']</t>
+          <t>['bali', 'destinasi', 'utama', 'wisata', 'indonesia', 'memiliki', 'merek', 'pasar', 'wisman', 'terbaik', 'pintu', 'masuk', 'utama', 'wisataw']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['bal', 'destinasi', 'utama', 'wisata', 'indonesia', 'milik', 'merek', 'pasar', 'wisman', 'baik', 'pintu', 'masuk', 'utama', 'wisataw']</t>
         </is>
       </c>
     </row>
@@ -799,34 +849,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>21879</v>
+        <v>30457</v>
       </c>
       <c r="C11" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>menggunakan batik tenun khas ntb yang saya dapatkan langsung dari desa sukarara lombok tengah pagi ini membuka pe</t>
+          <t>tiba di bali langsung mengikuti rapat koordinasi tidak lanjut penanganan covid dan pemulihan pariwisata di pro</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['menggunakan', 'batik', 'tenun', 'khas', 'ntb', 'yang', 'saya', 'dapatkan', 'langsung', 'dari', 'desa', 'sukarara', 'lombok', 'tengah', 'pagi', 'ini', 'membuka', 'pe']</t>
+          <t>['tiba', 'di', 'bali', 'langsung', 'mengikuti', 'rapat', 'koordinasi', 'tidak', 'lanjut', 'penanganan', 'covid', 'dan', 'pemulihan', 'pariwisata', 'di', 'pro']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['tiba', 'di', 'bali', 'langsung', 'mengikuti', 'rapat', 'koordinasi', 'tidak', 'lanjut', 'penanganan', 'covid', 'dan', 'pemulihan', 'pariwisata', 'di', 'pro']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['batik', 'tenun', 'khas', 'ntb', 'dapatkan', 'langsung', 'desa', 'sukarara', 'lombok', 'pagi', 'membuka', 'pe']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['batik', 'tenun', 'khas', 'ntb', 'dapat', 'langsung', 'desa', 'sukarara', 'lombok', 'pagi', 'buka', 'pe']</t>
+          <t>['bali', 'langsung', 'mengikuti', 'rapat', 'koordinasi', 'penanganan', 'covid', 'pemulihan', 'pariwisata', 'pro']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['bal', 'langsung', 'ikut', 'rapat', 'koordinasi', 'tangan', 'covid', 'pulih', 'pariwisata', 'pro']</t>
         </is>
       </c>
     </row>
@@ -835,34 +890,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>21880</v>
+        <v>30458</v>
       </c>
       <c r="C12" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">walaupun bukan  marketing tapi saya berhasil membuat kang datang jauhjauh dari bogor untuk mencoba </t>
+          <t>kita ingin memastikan bahwa kebangkitan ekonomi ini sudah mulai terasa dampaknya bagi masyarakat bali terutama yan</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['walaupun', 'bukan', 'marketing', 'tapi', 'saya', 'berhasil', 'membuat', 'kang', 'datang', 'jauhjauh', 'dari', 'bogor', 'untuk', 'mencoba']</t>
+          <t>['kita', 'ingin', 'memastikan', 'bahwa', 'kebangkitan', 'ekonomi', 'ini', 'sudah', 'mulai', 'terasa', 'dampaknya', 'bagi', 'masyarakat', 'bali', 'terutama', 'yan']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['kita', 'ingin', 'memastikan', 'bahwa', 'kebangkitan', 'ekonomi', 'ini', 'sudah', 'mulai', 'terasa', 'dampaknya', 'bagi', 'masyarakat', 'bali', 'terutama', 'yan']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['marketing', 'berhasil', 'kang', 'jauhjauh', 'bogor', 'mencoba']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['marketing', 'hasil', 'kang', 'jauhjauh', 'bogor', 'coba']</t>
+          <t>['kebangkitan', 'ekonomi', 'dampaknya', 'masyarakat', 'bali', 'yan']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['bangkit', 'ekonomi', 'dampak', 'masyarakat', 'bal', 'yan']</t>
         </is>
       </c>
     </row>
@@ -871,34 +931,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>21881</v>
+        <v>30459</v>
       </c>
       <c r="C13" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>apresiasi sekali produkproduk kreatif anak bangsa kreatifitas seperti ini saya yakin akan membuka banyak lapangan</t>
+          <t>siang ini saya bergerak menuju bali meninjau kembali pelaksanaan vaksin massal bagi pelaku pariwisata dan ekonomi</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['apresiasi', 'sekali', 'produkproduk', 'kreatif', 'anak', 'bangsa', 'kreatifitas', 'seperti', 'ini', 'saya', 'yakin', 'akan', 'membuka', 'banyak', 'lapangan']</t>
+          <t>['siang', 'ini', 'saya', 'bergerak', 'menuju', 'bali', 'meninjau', 'kembali', 'pelaksanaan', 'vaksin', 'massal', 'bagi', 'pelaku', 'pariwisata', 'dan', 'ekonomi']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['siang', 'ini', 'saya', 'bergerak', 'menuju', 'bali', 'meninjau', 'kembali', 'pelaksanaan', 'vaksin', 'massal', 'bagi', 'pelaku', 'pariwisata', 'dan', 'ekonomi']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['apresiasi', 'produkproduk', 'kreatif', 'anak', 'bangsa', 'kreatifitas', 'membuka', 'lapangan']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['apresiasi', 'produkproduk', 'kreatif', 'anak', 'bangsa', 'kreatifitas', 'buka', 'lapang']</t>
+          <t>['siang', 'bergerak', 'bali', 'meninjau', 'pelaksanaan', 'vaksin', 'massal', 'pelaku', 'pariwisata', 'ekonomi']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['siang', 'gerak', 'bal', 'tinjau', 'laksana', 'vaksin', 'massal', 'laku', 'pariwisata', 'ekonomi']</t>
         </is>
       </c>
     </row>
@@ -907,34 +972,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>21882</v>
+        <v>30460</v>
       </c>
       <c r="C14" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">motor listrik si gesits menggunakan tenaga listrik yang mampu menempuh jarak sejauh km dan mencapai kecepatan </t>
+          <t xml:space="preserve">selamat hari raya nyepi tahun baru saka bagi umat hindu yang melaksanakannya di tahun saka yang baru </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['motor', 'listrik', 'si', 'gesits', 'menggunakan', 'tenaga', 'listrik', 'yang', 'mampu', 'menempuh', 'jarak', 'sejauh', 'km', 'dan', 'mencapai', 'kecepatan']</t>
+          <t>['selamat', 'hari', 'raya', 'nyepi', 'tahun', 'baru', 'saka', 'bagi', 'umat', 'hindu', 'yang', 'melaksanakannya', 'di', 'tahun', 'saka', 'yang', 'baru']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['selamat', 'hari', 'raya', 'nyepi', 'tahun', 'baru', 'saka', 'bagi', 'umat', 'hindu', 'yang', 'melaksanakannya', 'di', 'tahun', 'saka', 'yang', 'baru']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['motor', 'listrik', 'gesits', 'tenaga', 'listrik', 'menempuh', 'jarak', 'km', 'mencapai', 'kecepatan']</t>
+          <t>&lt;FreqDist with 13 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['motor', 'listrik', 'gesits', 'tenaga', 'listrik', 'tempuh', 'jarak', 'km', 'capai', 'cepat']</t>
+          <t>['selamat', 'raya', 'nyepi', 'saka', 'umat', 'hindu', 'melaksanakannya', 'saka']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['selamat', 'raya', 'nyepi', 'saka', 'umat', 'hindu', 'laksana', 'saka']</t>
         </is>
       </c>
     </row>
@@ -943,34 +1013,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>21883</v>
+        <v>30461</v>
       </c>
       <c r="C15" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>mencoba motor listrik inovasi karya anak bangsa kolaborasi dari dunia pendidikan institut teknologi sepuluh nopem</t>
+          <t>dengan kolaborasi seluruh pihak termasuk pemerintah daerah kita hadirkan program yang akan menggerakkan perekonom</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['mencoba', 'motor', 'listrik', 'inovasi', 'karya', 'anak', 'bangsa', 'kolaborasi', 'dari', 'dunia', 'pendidikan', 'institut', 'teknologi', 'sepuluh', 'nopem']</t>
+          <t>['dengan', 'kolaborasi', 'seluruh', 'pihak', 'termasuk', 'pemerintah', 'daerah', 'kita', 'hadirkan', 'program', 'yang', 'akan', 'menggerakkan', 'perekonom']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['dengan', 'kolaborasi', 'seluruh', 'pihak', 'termasuk', 'pemerintah', 'daerah', 'kita', 'hadirkan', 'program', 'yang', 'akan', 'menggerakkan', 'perekonom']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['mencoba', 'motor', 'listrik', 'inovasi', 'karya', 'anak', 'bangsa', 'kolaborasi', 'dunia', 'pendidikan', 'institut', 'teknologi', 'sepuluh', 'nopem']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['coba', 'motor', 'listrik', 'inovasi', 'karya', 'anak', 'bangsa', 'kolaborasi', 'dunia', 'didik', 'institut', 'teknologi', 'puluh', 'nopem']</t>
+          <t>['kolaborasi', 'pemerintah', 'daerah', 'hadirkan', 'program', 'menggerakkan', 'perekonom']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['kolaborasi', 'perintah', 'daerah', 'hadir', 'program', 'gerak', 'ekonom']</t>
         </is>
       </c>
     </row>
@@ -979,34 +1054,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>21884</v>
+        <v>30462</v>
       </c>
       <c r="C16" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ini adalah persiapan kita untuk menyambut kembali wisatawan mancanegara dengan menerapkan konsep free covid corridor atau travel bubble</t>
+          <t>didampingi bapak wakil gubernur jawa tengah taj yasin maimoen kami berkeliling kampung bernama kampung batik teng</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['ini', 'adalah', 'persiapan', 'kita', 'untuk', 'menyambut', 'kembali', 'wisatawan', 'mancanegara', 'dengan', 'menerapkan', 'konsep', 'free', 'covid', 'corridor', 'atau', 'travel', 'bubble']</t>
+          <t>['didampingi', 'bapak', 'wakil', 'gubernur', 'jawa', 'tengah', 'taj', 'yasin', 'maimoen', 'kami', 'berkeliling', 'kampung', 'bernama', 'kampung', 'batik', 'teng']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['didampingi', 'bapak', 'wakil', 'gubernur', 'jawa', 'tengah', 'tai', 'yasin', 'maimoen', 'kami', 'berkeliling', 'kampung', 'bernama', 'kampung', 'batik', 'teng']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['persiapan', 'menyambut', 'wisatawan', 'mancanegara', 'menerapkan', 'konsep', 'free', 'covid', 'corridor', 'travel', 'bubble']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['siap', 'sambut', 'wisatawan', 'mancanegara', 'terap', 'konsep', 'free', 'covid', 'corridor', 'travel', 'bubble']</t>
+          <t>['didampingi', 'wakil', 'gubernur', 'jawa', 'tai', 'yasin', 'maimoen', 'berkeliling', 'kampung', 'bernama', 'kampung', 'batik', 'teng']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['damping', 'wakil', 'gubernur', 'jawa', 'tai', 'yasin', 'maimoen', 'keliling', 'kampung', 'nama', 'kampung', 'batik', 'teng']</t>
         </is>
       </c>
     </row>
@@ -1015,34 +1095,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>21885</v>
+        <v>30463</v>
       </c>
       <c r="C17" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>semalam melakukan rapat dengan ceo dari air asia tony fernandes dalam rapat ini saya meminta adanya penerbangan</t>
+          <t>meninjau kampoeng jadhoel yang terletak di rt rw kelurahan rejomulyo kecamatan semarang timur semarang ja</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['semalam', 'melakukan', 'rapat', 'dengan', 'ceo', 'dari', 'air', 'asia', 'tony', 'fernandes', 'dalam', 'rapat', 'ini', 'saya', 'meminta', 'adanya', 'penerbangan']</t>
+          <t>['meninjau', 'kampoeng', 'jadhoel', 'yang', 'terletak', 'di', 'rt', 'rw', 'kelurahan', 'rejomulyo', 'kecamatan', 'semarang', 'timur', 'semarang', 'ja']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['meninjau', 'kampoeng', 'jadhoel', 'yang', 'terletak', 'di', 'rt', 'rukun, warga', 'kelurahan', 'rejomulyo', 'kecamatan', 'semarang', 'timur', 'semarang', 'saja']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['semalam', 'rapat', 'ceo', 'air', 'asia', 'tony', 'fernandes', 'rapat', 'penerbangan']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['malam', 'rapat', 'ceo', 'air', 'asia', 'tony', 'fernandes', 'rapat', 'terbang']</t>
+          <t>['meninjau', 'kampoeng', 'jadhoel', 'terletak', 'rukun, warga', 'kelurahan', 'rejomulyo', 'kecamatan', 'semarang', 'timur', 'semarang']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['tinjau', 'kampoeng', 'jadhoel', 'letak', 'rukun warga', 'lurah', 'rejomulyo', 'camat', 'semarang', 'timur', 'semarang']</t>
         </is>
       </c>
     </row>
@@ -1051,34 +1136,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>21886</v>
+        <v>30464</v>
       </c>
       <c r="C18" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>hari ini ayah saya atau biasa saya panggil waba berulang tahun ke alhamdulillah masih sangat fit dan bugar sem</t>
+          <t>dalam kesempatan ini saya juga ingin mengapresiasi terbentuknya satgas toilet ini adalah wujud kepedulian dan part</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['hari', 'ini', 'ayah', 'saya', 'atau', 'biasa', 'saya', 'panggil', 'waba', 'berulang', 'tahun', 'ke', 'alhamdulillah', 'masih', 'sangat', 'fit', 'dan', 'bugar', 'sem']</t>
+          <t>['dalam', 'kesempatan', 'ini', 'saya', 'juga', 'ingin', 'mengapresiasi', 'terbentuknya', 'satgas', 'toilet', 'ini', 'adalah', 'wujud', 'kepedulian', 'dan', 'part']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['dalam', 'kesempatan', 'ini', 'saya', 'juga', 'ingin', 'mengapresiasi', 'terbentuknya', 'satuan, tugas', 'toilet', 'ini', 'adalah', 'wujud', 'kepedulian', 'dan', 'part']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['ayah', 'panggil', 'waba', 'berulang', 'alhamdulillah', 'fit', 'bugar', 'sem']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['ayah', 'panggil', 'waba', 'ulang', 'alhamdulillah', 'fit', 'bugar', 'sem']</t>
+          <t>['kesempatan', 'mengapresiasi', 'terbentuknya', 'satuan, tugas', 'toilet', 'wujud', 'kepedulian', 'part']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['sempat', 'apresiasi', 'bentuk', 'satu tugas', 'toilet', 'wujud', 'peduli', 'part']</t>
         </is>
       </c>
     </row>
@@ -1087,34 +1177,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>21887</v>
+        <v>30465</v>
       </c>
       <c r="C19" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>dengan adanya vaksinasi massal ini kita harapkan dapat menyelamatkan mata pencaharian dan lapangan kerja bagi masy</t>
+          <t>saya semakin optimis bahwa konsep desa wisata berkelanjutan mampu mengangkat citra pariwisata indonesia dan membuka</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['dengan', 'adanya', 'vaksinasi', 'massal', 'ini', 'kita', 'harapkan', 'dapat', 'menyelamatkan', 'mata', 'pencaharian', 'dan', 'lapangan', 'kerja', 'bagi', 'masy']</t>
+          <t>['saya', 'semakin', 'optimis', 'bahwa', 'konsep', 'desa', 'wisata', 'berkelanjutan', 'mampu', 'mengangkat', 'citra', 'pariwisata', 'indonesia', 'dan', 'membuka']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['saya', 'semakin', 'optimis', 'bahwa', 'konsep', 'desa', 'wisata', 'berkelanjutan', 'mampu', 'mengangkat', 'citra', 'pariwisata', 'indonesia', 'dan', 'membuka']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['vaksinasi', 'massal', 'harapkan', 'menyelamatkan', 'mata', 'pencaharian', 'lapangan', 'kerja', 'masy']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['vaksinasi', 'massal', 'harap', 'selamat', 'mata', 'cahari', 'lapang', 'kerja', 'masy']</t>
+          <t>['optimis', 'konsep', 'desa', 'wisata', 'berkelanjutan', 'mengangkat', 'citra', 'pariwisata', 'indonesia', 'membuka']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['optimis', 'konsep', 'desa', 'wisata', 'lanjut', 'angkat', 'citra', 'pariwisata', 'indonesia', 'buka']</t>
         </is>
       </c>
     </row>
@@ -1123,34 +1218,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>21888</v>
+        <v>30466</v>
       </c>
       <c r="C20" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">meninjau langsung vaccine center di nusa dua bali yang diperuntukkan untuk para pelaku parekraf dan juga pramudi </t>
+          <t>selain untuk melihat lebih dekat saya juga ingin melihat fasilitas penunjang seperti akomodasi atraksi serta prod</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['meninjau', 'langsung', 'vaccine', 'center', 'di', 'nusa', 'dua', 'bali', 'yang', 'diperuntukkan', 'untuk', 'para', 'pelaku', 'parekraf', 'dan', 'juga', 'pramudi']</t>
+          <t>['selain', 'untuk', 'melihat', 'lebih', 'dekat', 'saya', 'juga', 'ingin', 'melihat', 'fasilitas', 'penunjang', 'seperti', 'akomodasi', 'atraksi', 'serta', 'prod']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['selain', 'untuk', 'melihat', 'lebih', 'dekat', 'saya', 'juga', 'ingin', 'melihat', 'fasilitas', 'penunjang', 'seperti', 'akomodasi', 'atraksi', 'serta', 'prod']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['meninjau', 'langsung', 'vaccine', 'center', 'nusa', 'bali', 'diperuntukkan', 'pelaku', 'parekraf', 'pramudi']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['tinjau', 'langsung', 'vaccine', 'center', 'nusa', 'bal', 'untuk', 'laku', 'parekraf', 'pramudi']</t>
+          <t>['fasilitas', 'penunjang', 'akomodasi', 'atraksi', 'prod']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['fasilitas', 'tunjang', 'akomodasi', 'atraksi', 'prod']</t>
         </is>
       </c>
     </row>
@@ -1159,34 +1259,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>21889</v>
+        <v>30467</v>
       </c>
       <c r="C21" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>vaksin massal untuk pelaku pariwisata dan ekonomi kreatif bali</t>
+          <t xml:space="preserve">mendatangi langsung balai ekonomi desa balkondes karangrejo memberikan apresiasi atas keberhasilannya mendapat </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['vaksin', 'massal', 'untuk', 'pelaku', 'pariwisata', 'dan', 'ekonomi', 'kreatif', 'bali']</t>
+          <t>['mendatangi', 'langsung', 'balai', 'ekonomi', 'desa', 'balkondes', 'karangrejo', 'memberikan', 'apresiasi', 'atas', 'keberhasilannya', 'mendapat']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['mendatangi', 'langsung', 'balai', 'ekonomi', 'desa', 'balkondes', 'karangrejo', 'memberikan', 'apresiasi', 'atas', 'keberhasilannya', 'mendapat']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['vaksin', 'massal', 'pelaku', 'pariwisata', 'ekonomi', 'kreatif', 'bali']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['vaksin', 'massal', 'laku', 'pariwisata', 'ekonomi', 'kreatif', 'bal']</t>
+          <t>['langsung', 'balai', 'ekonomi', 'desa', 'balkondes', 'karangrejo', 'apresiasi', 'keberhasilannya']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['langsung', 'balai', 'ekonomi', 'desa', 'balkondes', 'karangrejo', 'apresiasi', 'hasil']</t>
         </is>
       </c>
     </row>
@@ -1195,34 +1300,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>21890</v>
+        <v>30468</v>
       </c>
       <c r="C22" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">bangunannya yang luas memberikan ruang untuk penciptaan lapangan kerja bagi pelaku ekonomi kreatif lokal bersama </t>
+          <t>dilanjutkan dengan meninjau kawasan candi pawon dan terakhir concourse borobudur area terbuka yang menjadi spot</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['bangunannya', 'yang', 'luas', 'memberikan', 'ruang', 'untuk', 'penciptaan', 'lapangan', 'kerja', 'bagi', 'pelaku', 'ekonomi', 'kreatif', 'lokal', 'bersama']</t>
+          <t>['dilanjutkan', 'dengan', 'meninjau', 'kawasan', 'candi', 'pawon', 'dan', 'terakhir', 'concourse', 'borobudur', 'area', 'terbuka', 'yang', 'menjadi', 'spot']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>['dilanjutkan', 'dengan', 'meninjau', 'kawasan', 'candi', 'pawon', 'dan', 'terakhir', 'concourse', 'borobudur', 'area', 'terbuka', 'yang', 'menjadi', 'spot']</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>['bangunannya', 'luas', 'ruang', 'penciptaan', 'lapangan', 'kerja', 'pelaku', 'ekonomi', 'kreatif', 'lokal']</t>
-        </is>
-      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['bangun', 'luas', 'ruang', 'cipta', 'lapang', 'kerja', 'laku', 'ekonomi', 'kreatif', 'lokal']</t>
+          <t>['dilanjutkan', 'meninjau', 'kawasan', 'candi', 'pawon', 'concourse', 'borobudur', 'area', 'terbuka', 'spot']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['lanjut', 'tinjau', 'kawasan', 'candi', 'pawon', 'concourse', 'borobudur', 'area', 'buka', 'spot']</t>
         </is>
       </c>
     </row>
@@ -1231,34 +1341,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>21891</v>
+        <v>30469</v>
       </c>
       <c r="C23" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>pagi ini bersama gubernur bali  wayan koster mengunjungi bali art center taman budaya bali ini merupakan tempa</t>
+          <t>setelah itu bergerak menuju desa wisata kembang limus salah satu gerbang menuju candi borobudur yang juga menyimp</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['pagi', 'ini', 'bersama', 'gubernur', 'bali', 'wayan', 'koster', 'mengunjungi', 'bali', 'art', 'center', 'taman', 'budaya', 'bali', 'ini', 'merupakan', 'tempa']</t>
+          <t>['setelah', 'itu', 'bergerak', 'menuju', 'desa', 'wisata', 'kembang', 'limus', 'salah', 'satu', 'gerbang', 'menuju', 'candi', 'borobudur', 'yang', 'juga', 'menyimp']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
+          <t>['setelah', 'itu', 'bergerak', 'menuju', 'desa', 'wisata', 'kembang', 'limus', 'salah', 'satu', 'gerbang', 'menuju', 'candi', 'borobudur', 'yang', 'juga', 'menyimp']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['pagi', 'gubernur', 'bali', 'wayan', 'koster', 'mengunjungi', 'bali', 'art', 'center', 'taman', 'budaya', 'bali', 'tempa']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['pagi', 'gubernur', 'bal', 'wayan', 'koster', 'unjung', 'bal', 'art', 'center', 'taman', 'budaya', 'bal', 'tempa']</t>
+          <t>['bergerak', 'desa', 'wisata', 'kembang', 'limus', 'salah', 'gerbang', 'candi', 'borobudur', 'menyimp']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['gerak', 'desa', 'wisata', 'kembang', 'limus', 'salah', 'gerbang', 'candi', 'borobudur', 'menyimp']</t>
         </is>
       </c>
     </row>
@@ -1267,34 +1382,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>21892</v>
+        <v>30470</v>
       </c>
       <c r="C24" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">hal ini juga menindaklanjuti arahan dari bapak presiden amp wakil presiden untuk mengangkat potensi yang luar biasa </t>
+          <t>setibanya di yogyakarta langsung bergerak menuju lapangan seni kujon di kecamatan borobudur di magelang yang sedan</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['hal', 'ini', 'juga', 'menindaklanjuti', 'arahan', 'dari', 'bapak', 'presiden', 'amp', 'wakil', 'presiden', 'untuk', 'mengangkat', 'potensi', 'yang', 'luar', 'biasa']</t>
+          <t>['setibanya', 'di', 'yogyakarta', 'langsung', 'bergerak', 'menuju', 'lapangan', 'seni', 'kujon', 'di', 'kecamatan', 'borobudur', 'di', 'magelang', 'yang', 'sedan']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['setibanya', 'di', 'yogyakarta', 'langsung', 'bergerak', 'menuju', 'lapangan', 'seni', 'kujon', 'di', 'kecamatan', 'borobudur', 'di', 'magelang', 'yang', 'sedan']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['menindaklanjuti', 'arahan', 'presiden', 'wakil', 'presiden', 'mengangkat', 'potensi']</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['menindaklanjuti', 'arah', 'presiden', 'wakil', 'presiden', 'angkat', 'potensi']</t>
+          <t>['yogyakarta', 'langsung', 'bergerak', 'lapangan', 'seni', 'kujon', 'kecamatan', 'borobudur', 'magelang', 'sedan']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['yogyakarta', 'langsung', 'gerak', 'lapang', 'seni', 'kujon', 'camat', 'borobudur', 'magelang', 'sedan']</t>
         </is>
       </c>
     </row>
@@ -1303,34 +1423,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>21893</v>
+        <v>30471</v>
       </c>
       <c r="C25" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>penandatanganan nota kesepahaman ini merupakan langkah awal pemulihan sekaligus pengembangan sektor pariwisata dan</t>
+          <t>tiba di bandara adisutjipto yogyakarta pagi ini saya langsung bergerak menuju borobudur salah satu dari lima des</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['penandatanganan', 'nota', 'kesepahaman', 'ini', 'merupakan', 'langkah', 'awal', 'pemulihan', 'sekaligus', 'pengembangan', 'sektor', 'pariwisata', 'dan']</t>
+          <t>['tiba', 'di', 'bandara', 'adisutjipto', 'yogyakarta', 'pagi', 'ini', 'saya', 'langsung', 'bergerak', 'menuju', 'borobudur', 'salah', 'satu', 'dari', 'lima', 'des']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['tiba', 'di', 'bandara', 'adisutjipto', 'yogyakarta', 'pagi', 'ini', 'saya', 'langsung', 'bergerak', 'menuju', 'borobudur', 'salah', 'satu', 'dari', 'lima', 'desember']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['penandatanganan', 'nota', 'kesepahaman', 'langkah', 'pemulihan', 'pengembangan', 'sektor', 'pariwisata']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['penandatanganan', 'nota', 'paham', 'langkah', 'pulih', 'kembang', 'sektor', 'pariwisata']</t>
+          <t>['bandara', 'adisutjipto', 'yogyakarta', 'pagi', 'langsung', 'bergerak', 'borobudur', 'salah', 'desember']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['bandara', 'adisutjipto', 'yogyakarta', 'pagi', 'langsung', 'gerak', 'borobudur', 'salah', 'desember']</t>
         </is>
       </c>
     </row>
@@ -1339,34 +1464,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>21894</v>
+        <v>30472</v>
       </c>
       <c r="C26" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>hari ini saya menyaksikanbali dan papua mulai menyatukan langkah menandatangani kesepakatan bersama antara dinas</t>
+          <t>durian lovers yang ingin beragrowisata sekaligus mencicip nikmatnya durian musang king dan black thorn bisa kunjungi perkebunan ini</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['hari', 'ini', 'saya', 'menyaksikanbali', 'dan', 'papua', 'mulai', 'menyatukan', 'langkah', 'menandatangani', 'kesepakatan', 'bersama', 'antara', 'dinas']</t>
+          <t>['durian', 'lovers', 'yang', 'ingin', 'beragrowisata', 'sekaligus', 'mencicip', 'nikmatnya', 'durian', 'musang', 'king', 'dan', 'black', 'thorn', 'bisa', 'kunjungi', 'perkebunan', 'ini']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['durian', 'pecinta', 'yang', 'ingin', 'beragrowisata', 'sekaligus', 'mencicip', 'nikmatnya', 'durian', 'musang', 'raja', 'dan', 'black', 'thorn', 'bisa', 'kunjungi', 'perkebunan', 'ini']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['menyaksikanbali', 'papua', 'menyatukan', 'langkah', 'menandatangani', 'kesepakatan', 'dinas']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['menyaksikanbali', 'papua', 'satu', 'langkah', 'menandatangani', 'sepakat', 'dinas']</t>
+          <t>['durian', 'pecinta', 'beragrowisata', 'mencicip', 'nikmatnya', 'durian', 'musang', 'raja', 'black', 'thorn', 'kunjungi', 'perkebunan']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['durian', 'cinta', 'agrowisata', 'cicip', 'nikmat', 'durian', 'musang', 'raja', 'black', 'thorn', 'kunjung', 'kebun']</t>
         </is>
       </c>
     </row>
@@ -1375,34 +1505,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>21895</v>
+        <v>30473</v>
       </c>
       <c r="C27" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>dengan menawarkan wisata berbasis alam dan budaya serta mengedepankan kebersihan kesehatan keselamatan dan keber</t>
+          <t xml:space="preserve">bersama pak walikota menyantap durian musang king dan black thorn di spot agrowisata kampung durian di </t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['dengan', 'menawarkan', 'wisata', 'berbasis', 'alam', 'dan', 'budaya', 'serta', 'mengedepankan', 'kebersihan', 'kesehatan', 'keselamatan', 'dan', 'keber']</t>
+          <t>['bersama', 'pak', 'walikota', 'menyantap', 'durian', 'musang', 'king', 'dan', 'black', 'thorn', 'di', 'spot', 'agrowisata', 'kampung', 'durian', 'di']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['bersama', 'pak', 'wali, kota', 'menyantap', 'durian', 'musang', 'raja', 'dan', 'black', 'thorn', 'di', 'spot', 'agrowisata', 'kampung', 'durian', 'di']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['menawarkan', 'wisata', 'berbasis', 'alam', 'budaya', 'mengedepankan', 'kebersihan', 'kesehatan', 'keselamatan', 'keber']</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['tawar', 'wisata', 'bas', 'alam', 'budaya', 'depan', 'bersih', 'sehat', 'selamat', 'keber']</t>
+          <t>['wali, kota', 'menyantap', 'durian', 'musang', 'raja', 'black', 'thorn', 'spot', 'agrowisata', 'kampung', 'durian']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['wali kota', 'santap', 'durian', 'musang', 'raja', 'black', 'thorn', 'spot', 'agrowisata', 'kampung', 'durian']</t>
         </is>
       </c>
     </row>
@@ -1411,34 +1546,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>21896</v>
+        <v>30474</v>
       </c>
       <c r="C28" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>desa penglipuran mendapat predikat sebagai salah satu desa terbersih di dunia di tahun terdapat ribu wisa</t>
+          <t xml:space="preserve">saatnya kita berkolaborasi bahumembahu untuk kebangkitan pariwisata dan ekonomi kreatif yang telah menjadi mata </t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['desa', 'penglipuran', 'mendapat', 'predikat', 'sebagai', 'salah', 'satu', 'desa', 'terbersih', 'di', 'dunia', 'di', 'tahun', 'terdapat', 'ribu', 'wisa']</t>
+          <t>['saatnya', 'kita', 'berkolaborasi', 'bahumembahu', 'untuk', 'kebangkitan', 'pariwisata', 'dan', 'ekonomi', 'kreatif', 'yang', 'telah', 'menjadi', 'mata']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['saatnya', 'kita', 'berkolaborasi', 'bahumembahu', 'untuk', 'kebangkitan', 'pariwisata', 'dan', 'ekonomi', 'kreatif', 'yang', 'telah', 'menjadi', 'mata']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['desa', 'penglipuran', 'predikat', 'salah', 'desa', 'terbersih', 'dunia', 'ribu', 'wisa']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['desa', 'lipur', 'predikat', 'salah', 'desa', 'bersih', 'dunia', 'ribu', 'wisa']</t>
+          <t>['berkolaborasi', 'bahumembahu', 'kebangkitan', 'pariwisata', 'ekonomi', 'kreatif', 'mata']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['kolaborasi', 'bahumembahu', 'bangkit', 'pariwisata', 'ekonomi', 'kreatif', 'mata']</t>
         </is>
       </c>
     </row>
@@ -1447,34 +1587,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>21897</v>
+        <v>30475</v>
       </c>
       <c r="C29" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>mengunjungi desa adat penglipuran di kabupaten bangli yang sudah berkembang menjadi desa wisata desa ini terkenal</t>
+          <t>insya allah ujian ini dapat segera kita lalui tiada hentinya mengingatkan kepada seluruh masyarakat untuk mematuh</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['mengunjungi', 'desa', 'adat', 'penglipuran', 'di', 'kabupaten', 'bangli', 'yang', 'sudah', 'berkembang', 'menjadi', 'desa', 'wisata', 'desa', 'ini', 'terkenal']</t>
+          <t>['insya', 'allah', 'ujian', 'ini', 'dapat', 'segera', 'kita', 'lalui', 'tiada', 'hentinya', 'mengingatkan', 'kepada', 'seluruh', 'masyarakat', 'untuk', 'mematuh']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['insya', 'allah', 'ujian', 'ini', 'dapat', 'segera', 'kita', 'lalui', 'tiada', 'hentinya', 'mengingatkan', 'kepada', 'seluruh', 'masyarakat', 'untuk', 'mematuh']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['mengunjungi', 'desa', 'adat', 'penglipuran', 'kabupaten', 'bangli', 'berkembang', 'desa', 'wisata', 'desa', 'terkenal']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['unjung', 'desa', 'adat', 'lipur', 'kabupaten', 'bangli', 'kembang', 'desa', 'wisata', 'desa', 'kenal']</t>
+          <t>['insya', 'allah', 'ujian', 'lalui', 'tiada', 'hentinya', 'masyarakat', 'mematuh']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['insya', 'allah', 'uji', 'lalu', 'tiada', 'henti', 'masyarakat', 'patuh']</t>
         </is>
       </c>
     </row>
@@ -1483,34 +1628,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>21898</v>
+        <v>30476</v>
       </c>
       <c r="C30" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>makan malam di nasi ayam kedewatan ibu mangku nasi ayam legendaris di bali sudah ada sejak tahun yang lalu da</t>
+          <t>selamat memperingati isra mikraj nabi muhammad saw rajab  semoga syafaat baginda rasulullah selalu menyer</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['makan', 'malam', 'di', 'nasi', 'ayam', 'kedewatan', 'ibu', 'mangku', 'nasi', 'ayam', 'legendaris', 'di', 'bali', 'sudah', 'ada', 'sejak', 'tahun', 'yang', 'lalu', 'da']</t>
+          <t>['selamat', 'memperingati', 'isra', 'mikraj', 'nabi', 'muhammad', 'saw', 'rajab', 'semoga', 'syafaat', 'baginda', 'rasulullah', 'selalu', 'menyer']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 20 outcomes&gt;</t>
+          <t>['selamat', 'memperingati', 'isra', 'mikraj', 'nabi', 'muhammad', 'saw', 'rajab', 'semoga', 'syafaat', 'baginda', 'rasulullah', 'selalu', 'menyer']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['makan', 'malam', 'nasi', 'ayam', 'kedewatan', 'mangku', 'nasi', 'ayam', 'legendaris', 'bali', 'da']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['makan', 'malam', 'nasi', 'ayam', 'kedewatan', 'mang', 'nasi', 'ayam', 'legendaris', 'bal', 'da']</t>
+          <t>['selamat', 'memperingati', 'isra', 'mikraj', 'nabi', 'muhammad', 'saw', 'rajab', 'semoga', 'syafaat', 'baginda', 'rasulullah', 'menyer']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['selamat', 'ingat', 'isra', 'mikraj', 'nabi', 'muhammad', 'saw', 'rajab', 'moga', 'syafaat', 'baginda', 'rasulullah', 'menyer']</t>
         </is>
       </c>
     </row>
@@ -1519,34 +1669,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>21899</v>
+        <v>30477</v>
       </c>
       <c r="C31" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ini adalah bentuk kolaborasi antara pemerintah dan badan usaha bergerak bersama mempercepat penanganan covid da</t>
+          <t>selain berpotensi menjadi spot untuk menggeliatkan ekonomi kreatif juga berpotensi menarik banyak wisatawan dan</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['ini', 'adalah', 'bentuk', 'kolaborasi', 'antara', 'pemerintah', 'dan', 'badan', 'usaha', 'bergerak', 'bersama', 'mempercepat', 'penanganan', 'covid', 'da']</t>
+          <t>['selain', 'berpotensi', 'menjadi', 'spot', 'untuk', 'menggeliatkan', 'ekonomi', 'kreatif', 'juga', 'berpotensi', 'menarik', 'banyak', 'wisatawan', 'dan']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['selain', 'berpotensi', 'menjadi', 'spot', 'untuk', 'menggeliatkan', 'ekonomi', 'kreatif', 'juga', 'berpotensi', 'menarik', 'banyak', 'wisatawan', 'dan']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['bentuk', 'kolaborasi', 'pemerintah', 'badan', 'usaha', 'bergerak', 'mempercepat', 'penanganan', 'covid', 'da']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['bentuk', 'kolaborasi', 'perintah', 'badan', 'usaha', 'gerak', 'cepat', 'tangan', 'covid', 'da']</t>
+          <t>['berpotensi', 'spot', 'menggeliatkan', 'ekonomi', 'kreatif', 'berpotensi', 'menarik', 'wisatawan']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['potensi', 'spot', 'geliat', 'ekonomi', 'kreatif', 'potensi', 'tarik', 'wisatawan']</t>
         </is>
       </c>
     </row>
@@ -1555,34 +1710,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>21900</v>
+        <v>30478</v>
       </c>
       <c r="C32" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>areanya yang luas bisa menampung banyak mobil dalam waktu yang bersamaan bisa melayani banyak pasien dalam waktu singkat</t>
+          <t xml:space="preserve">tempat yang dijadikan sebagai sanggar budaya ini menjadi tempat menuangkan kreativitas bagi para seniman dan grup </t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['areanya', 'yang', 'luas', 'bisa', 'menampung', 'banyak', 'mobil', 'dalam', 'waktu', 'yang', 'bersamaan', 'bisa', 'melayani', 'banyak', 'pasien', 'dalam', 'waktu', 'singkat']</t>
+          <t>['tempat', 'yang', 'dijadikan', 'sebagai', 'sanggar', 'budaya', 'ini', 'menjadi', 'tempat', 'menuangkan', 'kreativitas', 'bagi', 'para', 'seniman', 'dan', 'grup']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 18 outcomes&gt;</t>
+          <t>['tempat', 'yang', 'dijadikan', 'sebagai', 'sanggar', 'budaya', 'ini', 'menjadi', 'tempat', 'menuangkan', 'kreativitas', 'bagi', 'para', 'seniman', 'dan', 'grup']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['areanya', 'luas', 'menampung', 'mobil', 'bersamaan', 'melayani', 'pasien', 'singkat']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['area', 'luas', 'tampung', 'mobil', 'sama', 'layan', 'pasien', 'singkat']</t>
+          <t>['dijadikan', 'sanggar', 'budaya', 'menuangkan', 'kreativitas', 'seniman', 'grup']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['jadi', 'sanggar', 'budaya', 'tuang', 'kreativitas', 'seniman', 'grup']</t>
         </is>
       </c>
     </row>
@@ -1591,34 +1751,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>21901</v>
+        <v>30479</v>
       </c>
       <c r="C33" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>meninjau lokasi yang nantinya akan dijadikan sebagai tempat pemberian vaksin dengan model drive thru atau cukup dar</t>
+          <t>sore ini bersama walikota bogor kang mengunjungi sebuah amphitheater yang terletak di kawasan rancamaya</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['meninjau', 'lokasi', 'yang', 'nantinya', 'akan', 'dijadikan', 'sebagai', 'tempat', 'pemberian', 'vaksin', 'dengan', 'model', 'drive', 'thru', 'atau', 'cukup', 'dar']</t>
+          <t>['sore', 'ini', 'bersama', 'walikota', 'bogor', 'kang', 'mengunjungi', 'sebuah', 'amphitheater', 'yang', 'terletak', 'di', 'kawasan', 'rancamaya']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['sore', 'ini', 'bersama', 'wali, kota', 'bogor', 'kang', 'mengunjungi', 'sebuah', 'amphitheater', 'yang', 'terletak', 'di', 'kawasan', 'rancamaya']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['meninjau', 'lokasi', 'dijadikan', 'pemberian', 'vaksin', 'model', 'drive', 'thru', 'dar']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['tinjau', 'lokasi', 'jadi', 'beri', 'vaksin', 'model', 'drive', 'thru', 'dar']</t>
+          <t>['sore', 'wali, kota', 'bogor', 'kang', 'mengunjungi', 'amphitheater', 'terletak', 'kawasan', 'rancamaya']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['sore', 'wali kota', 'bogor', 'kang', 'unjung', 'amphitheater', 'letak', 'kawasan', 'rancamaya']</t>
         </is>
       </c>
     </row>
@@ -1627,34 +1792,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>21902</v>
+        <v>30480</v>
       </c>
       <c r="C34" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>hari ini juga di bali saya akan meninjau kesiapan vaksinasi gratis untuk para pelaku pariwisata dan ekonomi kreati</t>
+          <t>ingin sekali segera kembali ke pulau madura menggarap semua potensi lapangan kerja di sektor pariwisata dan ekonomi kreatif</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['hari', 'ini', 'juga', 'di', 'bali', 'saya', 'akan', 'meninjau', 'kesiapan', 'vaksinasi', 'gratis', 'untuk', 'para', 'pelaku', 'pariwisata', 'dan', 'ekonomi', 'kreati']</t>
+          <t>['ingin', 'sekali', 'segera', 'kembali', 'ke', 'pulau', 'madura', 'menggarap', 'semua', 'potensi', 'lapangan', 'kerja', 'di', 'sektor', 'pariwisata', 'dan', 'ekonomi', 'kreatif']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>['ingin', 'sekali', 'segera', 'kembali', 'ke', 'pulau', 'madura', 'menggarap', 'semua', 'potensi', 'lapangan', 'kerja', 'di', 'sektor', 'pariwisata', 'dan', 'ekonomi', 'kreatif']</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>['bali', 'meninjau', 'kesiapan', 'vaksinasi', 'gratis', 'pelaku', 'pariwisata', 'ekonomi', 'kreati']</t>
-        </is>
-      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['bal', 'tinjau', 'kesiap', 'vaksinasi', 'gratis', 'laku', 'pariwisata', 'ekonomi', 'kreati']</t>
+          <t>['pulau', 'madura', 'menggarap', 'potensi', 'lapangan', 'kerja', 'sektor', 'pariwisata', 'ekonomi', 'kreatif']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['pulau', 'madura', 'garap', 'potensi', 'lapang', 'kerja', 'sektor', 'pariwisata', 'ekonomi', 'kreatif']</t>
         </is>
       </c>
     </row>
@@ -1663,34 +1833,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>21903</v>
+        <v>30481</v>
       </c>
       <c r="C35" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>bentuk gercep dan geber gerak cepat dan gerak bersama pemerintah hari ini pemberian vaksinasi kepada kru pesawat</t>
+          <t>hari ini saya bekerja mengenakan pakaian adat madura dengan motif sabet manik produksi dari pesona batik madura</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['bentuk', 'gercep', 'dan', 'geber', 'gerak', 'cepat', 'dan', 'gerak', 'bersama', 'pemerintah', 'hari', 'ini', 'pemberian', 'vaksinasi', 'kepada', 'kru', 'pesawat']</t>
+          <t>['hari', 'ini', 'saya', 'bekerja', 'mengenakan', 'pakaian', 'adat', 'madura', 'dengan', 'motif', 'sabet', 'manik', 'produksi', 'dari', 'pesona', 'batik', 'madura']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['hari', 'ini', 'saya', 'bekerja', 'mengenakan', 'pakaian', 'adat', 'madura', 'dengan', 'motif', 'sabet', 'manik', 'produksi', 'dari', 'pesona', 'batik', 'madura']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['bentuk', 'gercep', 'geber', 'gerak', 'cepat', 'gerak', 'pemerintah', 'pemberian', 'vaksinasi', 'kru', 'pesawat']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['bentuk', 'gercep', 'geber', 'gerak', 'cepat', 'gerak', 'perintah', 'beri', 'vaksinasi', 'kru', 'pesawat']</t>
+          <t>['mengenakan', 'pakaian', 'adat', 'madura', 'motif', 'sabet', 'manik', 'produksi', 'pesona', 'batik', 'madura']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['kena', 'pakai', 'adat', 'madura', 'motif', 'sabet', 'manik', 'produksi', 'pesona', 'batik', 'madura']</t>
         </is>
       </c>
     </row>
@@ -1699,34 +1874,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>21904</v>
+        <v>30482</v>
       </c>
       <c r="C36" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>kembali di bali kunjungan saya kali ini adalah untuk meninjau kesiapan vaksinasi gratis bagi para pelaku pariwisat</t>
+          <t xml:space="preserve">untuk mendukung seni musik di indonesia mengadakan lomba cipta lagu nusantara yang dapat diikuti </t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['kembali', 'di', 'bali', 'kunjungan', 'saya', 'kali', 'ini', 'adalah', 'untuk', 'meninjau', 'kesiapan', 'vaksinasi', 'gratis', 'bagi', 'para', 'pelaku', 'pariwisat']</t>
+          <t>['untuk', 'mendukung', 'seni', 'musik', 'di', 'indonesia', 'mengadakan', 'lomba', 'cipta', 'lagu', 'nusantara', 'yang', 'dapat', 'diikuti']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['untuk', 'mendukung', 'seni', 'musik', 'di', 'indonesia', 'mengadakan', 'lomba', 'cipta', 'lagu', 'nusantara', 'yang', 'dapat', 'diikuti']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['bali', 'kunjungan', 'kali', 'meninjau', 'kesiapan', 'vaksinasi', 'gratis', 'pelaku', 'pariwisat']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['bal', 'kunjung', 'kali', 'tinjau', 'kesiap', 'vaksinasi', 'gratis', 'laku', 'pariwisat']</t>
+          <t>['mendukung', 'seni', 'musik', 'indonesia', 'mengadakan', 'lomba', 'cipta', 'lagu', 'nusantara', 'diikuti']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['dukung', 'seni', 'musik', 'indonesia', 'ada', 'lomba', 'cipta', 'lagu', 'nusantara', 'ikut']</t>
         </is>
       </c>
     </row>
@@ -1735,34 +1915,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>21905</v>
+        <v>30483</v>
       </c>
       <c r="C37" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>kami yakin kebijakan yang berbasis data akan bisa tereksekusi dengan lebih tepat sasaran tepat manfaat tepat wakt</t>
+          <t>maret lahirlah sang maestro kita wr supratman karya beliau lagu indonesia raya sebagai lagu kebangsaan kit</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['kami', 'yakin', 'kebijakan', 'yang', 'berbasis', 'data', 'akan', 'bisa', 'tereksekusi', 'dengan', 'lebih', 'tepat', 'sasaran', 'tepat', 'manfaat', 'tepat', 'wakt']</t>
+          <t>['maret', 'lahirlah', 'sang', 'maestro', 'kita', 'wr', 'supratman', 'karya', 'beliau', 'lagu', 'indonesia', 'raya', 'sebagai', 'lagu', 'kebangsaan', 'kit']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['maret', 'lahirlah', 'sang', 'maestro', 'kita', 'wr', 'supratman', 'karya', 'beliau', 'lagu', 'indonesia', 'raya', 'sebagai', 'lagu', 'kebangsaan', 'kit']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['kebijakan', 'berbasis', 'data', 'tereksekusi', 'sasaran', 'manfaat', 'wakt']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['bijak', 'bas', 'data', 'eksekusi', 'sasar', 'manfaat', 'wakt']</t>
+          <t>['maret', 'lahirlah', 'sang', 'maestro', 'wr', 'supratman', 'karya', 'beliau', 'lagu', 'indonesia', 'raya', 'lagu', 'kebangsaan', 'kit']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['maret', 'lahir', 'sang', 'maestro', 'wr', 'supratman', 'karya', 'beliau', 'lagu', 'indonesia', 'raya', 'lagu', 'bangsa', 'kit']</t>
         </is>
       </c>
     </row>
@@ -1771,34 +1956,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>21906</v>
+        <v>30484</v>
       </c>
       <c r="C38" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>kami juga sepakat untuk sharing data data dari sistem informasi ketenagakerjaan sisnaker akan dikolaborasikan de</t>
+          <t>dan terkait penerapan free covid corridor untuk membuka kembali wisatawan mancanegara semua pihak harus bersinerg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['kami', 'juga', 'sepakat', 'untuk', 'sharing', 'data', 'data', 'dari', 'sistem', 'informasi', 'ketenagakerjaan', 'sisnaker', 'akan', 'dikolaborasikan', 'de']</t>
+          <t>['dan', 'terkait', 'penerapan', 'free', 'covid', 'corridor', 'untuk', 'membuka', 'kembali', 'wisatawan', 'mancanegara', 'semua', 'pihak', 'harus', 'bersinerg']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['dan', 'terkait', 'penerapan', 'free', 'covid', 'corridor', 'untuk', 'membuka', 'kembali', 'wisatawan', 'mancanegara', 'semua', 'pihak', 'harus', 'bersinerg']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['sepakat', 'sharing', 'data', 'data', 'sistem', 'informasi', 'ketenagakerjaan', 'sisnaker', 'dikolaborasikan', 'de']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['sepakat', 'sharing', 'data', 'data', 'sistem', 'informasi', 'ketenagakerjaan', 'sisnaker', 'kolaborasi', 'de']</t>
+          <t>['terkait', 'penerapan', 'free', 'covid', 'corridor', 'membuka', 'wisatawan', 'mancanegara', 'bersinerg']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['kait', 'terap', 'free', 'covid', 'corridor', 'buka', 'wisatawan', 'mancanegara', 'bersinerg']</t>
         </is>
       </c>
     </row>
@@ -1807,34 +1997,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>21907</v>
+        <v>30485</v>
       </c>
       <c r="C39" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>saya mengapresiasi sekali hadirnya blk komunitas di tengah masyarakat memberikan peningkatan layanan bagi sektor pa</t>
+          <t>ketiga pembangunan kawasan ekonomi khusus kek tanjung pulisan harus terintegrasi dengan desa wisata melibatkan</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['saya', 'mengapresiasi', 'sekali', 'hadirnya', 'blk', 'komunitas', 'di', 'tengah', 'masyarakat', 'memberikan', 'peningkatan', 'layanan', 'bagi', 'sektor', 'pa']</t>
+          <t>['ketiga', 'pembangunan', 'kawasan', 'ekonomi', 'khusus', 'kek', 'tanjung', 'pulisan', 'harus', 'terintegrasi', 'dengan', 'desa', 'wisata', 'melibatkan']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['ketiga', 'pembangunan', 'kawasan', 'ekonomi', 'khusus', 'kayak', 'tanjung', 'pulisan', 'harus', 'terintegrasi', 'dengan', 'desa', 'wisata', 'melibatkan']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['mengapresiasi', 'hadirnya', 'blk', 'komunitas', 'masyarakat', 'peningkatan', 'layanan', 'sektor', 'pa']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['apresiasi', 'hadir', 'blk', 'komunitas', 'masyarakat', 'tingkat', 'layan', 'sektor', 'pa']</t>
+          <t>['ketiga', 'pembangunan', 'kawasan', 'ekonomi', 'khusus', 'kayak', 'tanjung', 'pulisan', 'terintegrasi', 'desa', 'wisata', 'melibatkan']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['tiga', 'bangun', 'kawasan', 'ekonomi', 'khusus', 'kayak', 'tanjung', 'pulisan', 'integrasi', 'desa', 'wisata', 'libat']</t>
         </is>
       </c>
     </row>
@@ -1843,34 +2038,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>21908</v>
+        <v>30486</v>
       </c>
       <c r="C40" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>bertemu dengan menteri ketenagakerjaan ibu ida fauziyah membahas peningkatan kompetensi tenaga kerja di sektor pa</t>
+          <t>kedua pastikan para umkm melakukan adaptasi teknologi dan digital agar masuk ke ekosistem ekonomi marketplace dan ekonomi zaman now</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['bertemu', 'dengan', 'menteri', 'ketenagakerjaan', 'ibu', 'ida', 'fauziyah', 'membahas', 'peningkatan', 'kompetensi', 'tenaga', 'kerja', 'di', 'sektor', 'pa']</t>
+          <t>['kedua', 'pastikan', 'para', 'umkm', 'melakukan', 'adaptasi', 'teknologi', 'dan', 'digital', 'agar', 'masuk', 'ke', 'ekosistem', 'ekonomi', 'marketplace', 'dan', 'ekonomi', 'zaman', 'now']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['kedua', 'pastikan', 'para', 'usaha, mikro, kecil, dan, menengah', 'melakukan', 'adaptasi', 'teknologi', 'dan', 'digital', 'agar', 'masuk', 'ke', 'ekosistem', 'ekonomi', 'marketplace', 'dan', 'ekonomi', 'zaman', 'now']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['bertemu', 'menteri', 'ketenagakerjaan', 'ida', 'fauziyah', 'membahas', 'peningkatan', 'kompetensi', 'tenaga', 'kerja', 'sektor', 'pa']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['temu', 'menteri', 'ketenagakerjaan', 'ida', 'fauziyah', 'bahas', 'tingkat', 'kompetensi', 'tenaga', 'kerja', 'sektor', 'pa']</t>
+          <t>['pastikan', 'usaha, mikro, kecil, dan, menengah', 'adaptasi', 'teknologi', 'digital', 'masuk', 'ekosistem', 'ekonomi', 'marketplace', 'ekonomi', 'zaman', 'now']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['pasti', 'usaha mikro kecil dan tengah', 'adaptasi', 'teknologi', 'digital', 'masuk', 'ekosistem', 'ekonomi', 'marketplace', 'ekonomi', 'zaman', 'now']</t>
         </is>
       </c>
     </row>
@@ -1879,34 +2079,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>21909</v>
+        <v>30487</v>
       </c>
       <c r="C41" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">akan terus mendorong penerapan pembangunan pariwisata berkelanjutan membuka lapangan kerja dengan </t>
+          <t>pertama begitu tiba bandara sam ratulangi manado kami ingin nuansa khas sulawesi utara lebih terasa bisa diconto</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['akan', 'terus', 'mendorong', 'penerapan', 'pembangunan', 'pariwisata', 'berkelanjutan', 'membuka', 'lapangan', 'kerja', 'dengan']</t>
+          <t>['pertama', 'begitu', 'tiba', 'bandara', 'sam', 'ratulangi', 'manado', 'kami', 'ingin', 'nuansa', 'khas', 'sulawesi', 'utara', 'lebih', 'terasa', 'bisa', 'diconto']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['pertama', 'begitu', 'tiba', 'bandara', 'sama', 'ratulangi', 'manado', 'kami', 'ingin', 'nuansa', 'khas', 'sulawesi', 'utara', 'lebih', 'terasa', 'bisa', 'diconto']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['mendorong', 'penerapan', 'pembangunan', 'pariwisata', 'berkelanjutan', 'membuka', 'lapangan', 'kerja']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['dorong', 'terap', 'bangun', 'pariwisata', 'lanjut', 'buka', 'lapang', 'kerja']</t>
+          <t>['bandara', 'ratulangi', 'manado', 'nuansa', 'khas', 'sulawesi', 'utara', 'diconto']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['bandara', 'ratulangi', 'manado', 'nuansa', 'khas', 'sulawesi', 'utara', 'diconto']</t>
         </is>
       </c>
     </row>
@@ -1915,34 +2120,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>21910</v>
+        <v>30488</v>
       </c>
       <c r="C42" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>kolaborasi yg tengah berjalan antara lain pengembangan ekowisata amp wisata bahari pada kawasan konservasi pengemban</t>
+          <t xml:space="preserve">siang ini kami menggelar rapat pimpinan untuk membahas tindaklanjut kunjungan kerja ke sulawesi utara akhir pekan </t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['kolaborasi', 'yg', 'tengah', 'berjalan', 'antara', 'lain', 'pengembangan', 'ekowisata', 'amp', 'wisata', 'bahari', 'pada', 'kawasan', 'konservasi', 'pengemban']</t>
+          <t>['siang', 'ini', 'kami', 'menggelar', 'rapat', 'pimpinan', 'untuk', 'membahas', 'tindaklanjut', 'kunjungan', 'kerja', 'ke', 'sulawesi', 'utara', 'akhir', 'pekan']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['siang', 'ini', 'kami', 'menggelar', 'rapat', 'pimpinan', 'untuk', 'membahas', 'tindaklanjut', 'kunjungan', 'kerja', 'ke', 'sulawesi', 'utara', 'akhir', 'pekan']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['kolaborasi', 'berjalan', 'pengembangan', 'ekowisata', 'wisata', 'bahari', 'kawasan', 'konservasi', 'pengemban']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['kolaborasi', 'jalan', 'kembang', 'ekowisata', 'wisata', 'bahari', 'kawasan', 'konservasi', 'emban']</t>
+          <t>['siang', 'menggelar', 'rapat', 'pimpinan', 'membahas', 'tindaklanjut', 'kunjungan', 'kerja', 'sulawesi', 'utara', 'pekan']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['siang', 'gelar', 'rapat', 'pimpin', 'bahas', 'tindaklanjut', 'kunjung', 'kerja', 'sulawesi', 'utara', 'pekan']</t>
         </is>
       </c>
     </row>
@@ -1951,34 +2161,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>21911</v>
+        <v>30489</v>
       </c>
       <c r="C43" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>pada siang ini kami melakukan rapat secara virtual dengan menteri lingkungan hidup dan kehutanan ibu siti nurbaya</t>
+          <t>anak indigo ini menuangkan kreativitasnya dengan melukis ekspresi jiwa keren sukses untuk mas aji febrianto teru</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['pada', 'siang', 'ini', 'kami', 'melakukan', 'rapat', 'secara', 'virtual', 'dengan', 'menteri', 'lingkungan', 'hidup', 'dan', 'kehutanan', 'ibu', 'siti', 'nurbaya']</t>
+          <t>['anak', 'indigo', 'ini', 'menuangkan', 'kreativitasnya', 'dengan', 'melukis', 'ekspresi', 'jiwa', 'keren', 'sukses', 'untuk', 'mas', 'aji', 'febrianto', 'teru']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['anak', 'indigo', 'ini', 'menuangkan', 'kreativitasnya', 'dengan', 'melukis', 'ekspresi', 'jiwa', 'keren', 'sukses', 'untuk', 'mas', 'aji', 'febrianto', 'terus']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['siang', 'rapat', 'virtual', 'menteri', 'lingkungan', 'hidup', 'kehutanan', 'siti', 'nurbaya']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['siang', 'rapat', 'virtual', 'menteri', 'lingkung', 'hidup', 'hutan', 'siti', 'nurbaya']</t>
+          <t>['anak', 'indigo', 'menuangkan', 'kreativitasnya', 'melukis', 'ekspresi', 'jiwa', 'keren', 'sukses', 'mas', 'aji', 'febrianto']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['anak', 'indigo', 'tuang', 'kreativitas', 'luk', 'ekspresi', 'jiwa', 'keren', 'sukses', 'mas', 'aji', 'febrianto']</t>
         </is>
       </c>
     </row>
@@ -1987,34 +2202,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>21912</v>
+        <v>30490</v>
       </c>
       <c r="C44" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>pada rpjmn terdapat kawasan pengembangan ekowisata di destinasi pariwisata prioritas</t>
+          <t>bantuan pemerintah dalam membangun rumahrumah warga agar bisa dijadikan homestay adalah suatu wujud nyata bahwa pe</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['pada', 'rpjmn', 'terdapat', 'kawasan', 'pengembangan', 'ekowisata', 'di', 'destinasi', 'pariwisata', 'prioritas']</t>
+          <t>['bantuan', 'pemerintah', 'dalam', 'membangun', 'rumahrumah', 'warga', 'agar', 'bisa', 'dijadikan', 'homestay', 'adalah', 'suatu', 'wujud', 'nyata', 'bahwa', 'pe']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['bantuan', 'pemerintah', 'dalam', 'membangun', 'rumahrumah', 'warga', 'agar', 'bisa', 'dijadikan', 'homestay', 'adalah', 'suatu', 'wujud', 'nyata', 'bahwa', 'pe']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['rpjmn', 'kawasan', 'pengembangan', 'ekowisata', 'destinasi', 'pariwisata', 'prioritas']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['rpjmn', 'kawasan', 'kembang', 'ekowisata', 'destinasi', 'pariwisata', 'prioritas']</t>
+          <t>['bantuan', 'pemerintah', 'membangun', 'rumahrumah', 'warga', 'dijadikan', 'homestay', 'wujud', 'nyata', 'pe']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['bantu', 'perintah', 'bangun', 'rumahrumah', 'warga', 'jadi', 'homestay', 'wujud', 'nyata', 'pe']</t>
         </is>
       </c>
     </row>
@@ -2023,34 +2243,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>21913</v>
+        <v>30491</v>
       </c>
       <c r="C45" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>banyak destinasi wisata alam yang terletak di kawasan konservasi dengan kewenangan pengelolaan oleh kementerian lhk</t>
+          <t>meninjau langsung realisasi bantuan pemerintah yang telah menjangkau unit pondok wisata homestay dan usaha par</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['banyak', 'destinasi', 'wisata', 'alam', 'yang', 'terletak', 'di', 'kawasan', 'konservasi', 'dengan', 'kewenangan', 'pengelolaan', 'oleh', 'kementerian', 'lhk']</t>
+          <t>['meninjau', 'langsung', 'realisasi', 'bantuan', 'pemerintah', 'yang', 'telah', 'menjangkau', 'unit', 'pondok', 'wisata', 'homestay', 'dan', 'usaha', 'par']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>['meninjau', 'langsung', 'realisasi', 'bantuan', 'pemerintah', 'yang', 'telah', 'menjangkau', 'unit', 'pondok', 'wisata', 'homestay', 'dan', 'usaha', 'par']</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>['destinasi', 'wisata', 'alam', 'terletak', 'kawasan', 'konservasi', 'kewenangan', 'pengelolaan', 'kementerian', 'lhk']</t>
-        </is>
-      </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['destinasi', 'wisata', 'alam', 'letak', 'kawasan', 'konservasi', 'wenang', 'kelola', 'menteri', 'lhk']</t>
+          <t>['meninjau', 'langsung', 'realisasi', 'bantuan', 'pemerintah', 'menjangkau', 'unit', 'pondok', 'wisata', 'homestay', 'usaha', 'par']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['tinjau', 'langsung', 'realisasi', 'bantu', 'perintah', 'jangkau', 'unit', 'pondok', 'wisata', 'homestay', 'usaha', 'par']</t>
         </is>
       </c>
     </row>
@@ -2059,34 +2284,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>21914</v>
+        <v>30492</v>
       </c>
       <c r="C46" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>bersama dengan polri kita akan geber gerak bersama untuk memastikan penerapan protokol chse berjalan dengan baik</t>
+          <t>pembangunan kawasan ekonomi khusus ini kita pastikan akan terintegrasi dengan desa wisata yang menjadi unggulan kam</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['bersama', 'dengan', 'polri', 'kita', 'akan', 'geber', 'gerak', 'bersama', 'untuk', 'memastikan', 'penerapan', 'protokol', 'chse', 'berjalan', 'dengan', 'baik']</t>
+          <t>['pembangunan', 'kawasan', 'ekonomi', 'khusus', 'ini', 'kita', 'pastikan', 'akan', 'terintegrasi', 'dengan', 'desa', 'wisata', 'yang', 'menjadi', 'unggulan', 'kam']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['pembangunan', 'kawasan', 'ekonomi', 'khusus', 'ini', 'kita', 'pastikan', 'akan', 'terintegrasi', 'dengan', 'desa', 'wisata', 'yang', 'menjadi', 'unggulan', 'kamu']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['polri', 'geber', 'gerak', 'penerapan', 'protokol', 'chse', 'berjalan']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['polri', 'geber', 'gerak', 'terap', 'protokol', 'chse', 'jalan']</t>
+          <t>['pembangunan', 'kawasan', 'ekonomi', 'khusus', 'pastikan', 'terintegrasi', 'desa', 'wisata', 'unggulan']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['bangun', 'kawasan', 'ekonomi', 'khusus', 'pasti', 'integrasi', 'desa', 'wisata', 'unggul']</t>
         </is>
       </c>
     </row>
@@ -2095,34 +2325,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>21915</v>
+        <v>30493</v>
       </c>
       <c r="C47" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>ada juta masyarakat yang menggantungkan lapangan kerjanya di sektor pariwisata dan ekonomi kreatif ini yang har</t>
+          <t xml:space="preserve">faktor penting dalam pengembangan kek tanjung pulisan yaitu atraksi amenitas aksesibilitas dan juga yang tak </t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['ada', 'juta', 'masyarakat', 'yang', 'menggantungkan', 'lapangan', 'kerjanya', 'di', 'sektor', 'pariwisata', 'dan', 'ekonomi', 'kreatif', 'ini', 'yang', 'har']</t>
+          <t>['faktor', 'penting', 'dalam', 'pengembangan', 'kek', 'tanjung', 'pulisan', 'yaitu', 'atraksi', 'amenitas', 'aksesibilitas', 'dan', 'juga', 'yang', 'tak']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['faktor', 'penting', 'dalam', 'pengembangan', 'kayak', 'tanjung', 'pulisan', 'yaitu', 'atraksi', 'amenitas', 'aksesibilitas', 'dan', 'juga', 'yang', 'tak']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['juta', 'masyarakat', 'menggantungkan', 'lapangan', 'kerjanya', 'sektor', 'pariwisata', 'ekonomi', 'kreatif', 'har']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['juta', 'masyarakat', 'gantung', 'lapang', 'kerja', 'sektor', 'pariwisata', 'ekonomi', 'kreatif', 'har']</t>
+          <t>['faktor', 'pengembangan', 'kayak', 'tanjung', 'pulisan', 'atraksi', 'amenitas', 'aksesibilitas']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['faktor', 'kembang', 'kayak', 'tanjung', 'pulisan', 'atraksi', 'amenitas', 'aksesibilitas']</t>
         </is>
       </c>
     </row>
@@ -2131,34 +2366,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>21916</v>
+        <v>30494</v>
       </c>
       <c r="C48" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>kami di secara rutin setiap harinya terhubung dengan para pelaku usaha dan pekerja di sektor pariwis</t>
+          <t>meninjau tanjung pulisan membahas pengembangan kawasan ekonomi khusus kektanjung pulisan bersama pt minahasa pe</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['kami', 'di', 'secara', 'rutin', 'setiap', 'harinya', 'terhubung', 'dengan', 'para', 'pelaku', 'usaha', 'dan', 'pekerja', 'di', 'sektor', 'pariwis']</t>
+          <t>['meninjau', 'tanjung', 'pulisan', 'membahas', 'pengembangan', 'kawasan', 'ekonomi', 'khusus', 'kektanjung', 'pulisan', 'bersama', 'pt', 'minahasa', 'pe']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['meninjau', 'tanjung', 'pulisan', 'membahas', 'pengembangan', 'kawasan', 'ekonomi', 'khusus', 'kektanjung', 'pulisan', 'bersama', 'pt', 'minahasa', 'pe']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['rutin', 'harinya', 'terhubung', 'pelaku', 'usaha', 'pekerja', 'sektor', 'pariwis']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['rutin', 'hari', 'hubung', 'laku', 'usaha', 'kerja', 'sektor', 'pariwis']</t>
+          <t>['meninjau', 'tanjung', 'pulisan', 'membahas', 'pengembangan', 'kawasan', 'ekonomi', 'khusus', 'kektanjung', 'pulisan', 'pt', 'minahasa', 'pe']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['tinjau', 'tanjung', 'pulisan', 'bahas', 'kembang', 'kawasan', 'ekonomi', 'khusus', 'kektanjung', 'pulisan', 'pt', 'minahasa', 'pe']</t>
         </is>
       </c>
     </row>
@@ -2167,34 +2407,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>21917</v>
+        <v>30495</v>
       </c>
       <c r="C49" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>pada hari ini kami membahas beberapa hal terkait strategi penyelenggaraan event di masa pandemi dalam rangka mendu</t>
+          <t>desa wisata dan program homestay yang kami pandu bersama kementerian pupr adalah wujud nyata pemerintah hadir untuk</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['pada', 'hari', 'ini', 'kami', 'membahas', 'beberapa', 'hal', 'terkait', 'strategi', 'penyelenggaraan', 'event', 'di', 'masa', 'pandemi', 'dalam', 'rangka', 'mendu']</t>
+          <t>['desa', 'wisata', 'dan', 'program', 'homestay', 'yang', 'kami', 'pandu', 'bersama', 'kementerian', 'pupr', 'adalah', 'wujud', 'nyata', 'pemerintah', 'hadir', 'untuk']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>['desa', 'wisata', 'dan', 'program', 'homestay', 'yang', 'kami', 'pandu', 'bersama', 'kementerian', 'pekerjaan, umum, dan, perumahan, rakyat', 'adalah', 'wujud', 'nyata', 'pemerintah', 'hadir', 'untuk']</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>['membahas', 'terkait', 'strategi', 'penyelenggaraan', 'event', 'pandemi', 'rangka', 'mendu']</t>
-        </is>
-      </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['bahas', 'kait', 'strategi', 'selenggara', 'event', 'pandemi', 'rangka', 'mendu']</t>
+          <t>['desa', 'wisata', 'program', 'homestay', 'pandu', 'kementerian', 'pekerjaan, umum, dan, perumahan, rakyat', 'wujud', 'nyata', 'pemerintah', 'hadir']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['desa', 'wisata', 'program', 'homestay', 'pandu', 'menteri', 'kerja umum dan rumah rakyat', 'wujud', 'nyata', 'perintah', 'hadir']</t>
         </is>
       </c>
     </row>
@@ -2203,34 +2448,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>21918</v>
+        <v>30496</v>
       </c>
       <c r="C50" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>mendatangi markas besar polri dan bertemu dengan bapak kapolri listyo sigit prabowo pertamatama saya ucapkan se</t>
+          <t>di desa wisata ini wisatawan bisa berhomestay dengan rp ribu per malam dan lokasinya dekat dengan wisata ala</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['mendatangi', 'markas', 'besar', 'polri', 'dan', 'bertemu', 'dengan', 'bapak', 'kapolri', 'listyo', 'sigit', 'prabowo', 'pertamatama', 'saya', 'ucapkan', 'se']</t>
+          <t>['di', 'desa', 'wisata', 'ini', 'wisatawan', 'bisa', 'berhomestay', 'dengan', 'rp', 'ribu', 'per', 'malam', 'dan', 'lokasinya', 'dekat', 'dengan', 'wisata', 'ala']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['di', 'desa', 'wisata', 'ini', 'wisatawan', 'bisa', 'berhomestay', 'dengan', 'rupiah', 'ribu', 'per', 'malam', 'dan', 'lokasinya', 'dekat', 'dengan', 'wisata', 'ala']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['markas', 'polri', 'bertemu', 'kapolri', 'listyo', 'sigit', 'prabowo', 'pertamatama', 'ucapkan']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['markas', 'polri', 'temu', 'kapolri', 'listyo', 'sigit', 'prabowo', 'pertamatama', 'ucap']</t>
+          <t>['desa', 'wisata', 'wisatawan', 'berhomestay', 'rupiah', 'ribu', 'malam', 'lokasinya', 'wisata', 'ala']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['desa', 'wisata', 'wisatawan', 'berhomestay', 'rupiah', 'ribu', 'malam', 'lokasi', 'wisata', 'ala']</t>
         </is>
       </c>
     </row>
@@ -2239,34 +2489,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>21919</v>
+        <v>30497</v>
       </c>
       <c r="C51" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>kunci sukses pengembangan sektor pariwisata dan ekonomi kreatif ada pada sumber daya manusianya saat ini indonesia</t>
+          <t>hari ini saya mengecek langsung realisasi bantuan pemerintah yang telah menjangkau unit pondok wisata homestay</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['kunci', 'sukses', 'pengembangan', 'sektor', 'pariwisata', 'dan', 'ekonomi', 'kreatif', 'ada', 'pada', 'sumber', 'daya', 'manusianya', 'saat', 'ini', 'indonesia']</t>
+          <t>['hari', 'ini', 'saya', 'mengecek', 'langsung', 'realisasi', 'bantuan', 'pemerintah', 'yang', 'telah', 'menjangkau', 'unit', 'pondok', 'wisata', 'homestay']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['hari', 'ini', 'saya', 'mengecek', 'langsung', 'realisasi', 'bantuan', 'pemerintah', 'yang', 'telah', 'menjangkau', 'unit', 'pondok', 'wisata', 'homestay']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['kunci', 'sukses', 'pengembangan', 'sektor', 'pariwisata', 'ekonomi', 'kreatif', 'sumber', 'daya', 'manusianya', 'indonesia']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['kunci', 'sukses', 'kembang', 'sektor', 'pariwisata', 'ekonomi', 'kreatif', 'sumber', 'daya', 'manusia', 'indonesia']</t>
+          <t>['mengecek', 'langsung', 'realisasi', 'bantuan', 'pemerintah', 'menjangkau', 'unit', 'pondok', 'wisata', 'homestay']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['ecek', 'langsung', 'realisasi', 'bantu', 'perintah', 'jangkau', 'unit', 'pondok', 'wisata', 'homestay']</t>
         </is>
       </c>
     </row>
@@ -2275,34 +2530,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>21920</v>
+        <v>30498</v>
       </c>
       <c r="C52" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>mengunjungi sekolah tinggi pariwisata bandung untuk memastikan para peserta didik mendapatkan pendidikan yang mumpu</t>
+          <t>rt pleased to sign an mou between the uae and indonesia in pursuit of our common interests especially in the sphere of ccis</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['mengunjungi', 'sekolah', 'tinggi', 'pariwisata', 'bandung', 'untuk', 'memastikan', 'para', 'peserta', 'didik', 'mendapatkan', 'pendidikan', 'yang', 'mumpu']</t>
+          <t>['rt', 'pleased', 'to', 'sign', 'an', 'mou', 'between', 'the', 'uae', 'and', 'indonesia', 'in', 'pursuit', 'of', 'our', 'common', 'interests', 'especially', 'in', 'the', 'sphere', 'of', 'ccis']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'pleased', 'to', 'sign', 'an', 'mou', 'between', 'the', 'uni, emirat, arab', 'and', 'indonesia', 'in', 'pursuit', 'of', 'our', 'common', 'interests', 'especially', 'in', 'the', 'sphere', 'of', 'ccis']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['mengunjungi', 'sekolah', 'pariwisata', 'bandung', 'peserta', 'didik', 'pendidikan', 'mumpu']</t>
+          <t>&lt;FreqDist with 20 samples and 23 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['unjung', 'sekolah', 'pariwisata', 'bandung', 'serta', 'didik', 'didik', 'mumpu']</t>
+          <t>['pleased', 'to', 'sign', 'an', 'mou', 'between', 'the', 'uni, emirat, arab', 'and', 'indonesia', 'in', 'pursuit', 'of', 'our', 'common', 'interests', 'especially', 'in', 'the', 'sphere', 'of', 'ccis']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['pleased', 'to', 'sign', 'an', 'mou', 'between', 'the', 'uni emirat arab', 'and', 'indonesia', 'in', 'pursuit', 'of', 'our', 'common', 'interests', 'especially', 'in', 'the', 'sphere', 'of', 'ccis']</t>
         </is>
       </c>
     </row>
@@ -2311,34 +2571,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>21921</v>
+        <v>30499</v>
       </c>
       <c r="C53" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">melepas jenazah bapak  gede ardika menteri kebudayaan amp pariwisata apresiasi setinggitingginya atas </t>
+          <t>rt</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['melepas', 'jenazah', 'bapak', 'gede', 'ardika', 'menteri', 'kebudayaan', 'amp', 'pariwisata', 'apresiasi', 'setinggitingginya', 'atas']</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['melepas', 'jenazah', 'gede', 'ardika', 'menteri', 'kebudayaan', 'pariwisata', 'apresiasi', 'setinggitingginya']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['lepas', 'jenazah', 'gede', 'ardika', 'menteri', 'budaya', 'pariwisata', 'apresiasi', 'setinggitingginya']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2347,34 +2612,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>21922</v>
+        <v>30500</v>
       </c>
       <c r="C54" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>dari acara ini saya berharap masyarakat kita jangan sampai hanya beli produk lokal karena perintah atau karena kas</t>
+          <t>kita gerak cepat gerak bersama dan garap semua potensi di desa tersebut untuk meningkatkan sektor pariwisata amp eko</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['dari', 'acara', 'ini', 'saya', 'berharap', 'masyarakat', 'kita', 'jangan', 'sampai', 'hanya', 'beli', 'produk', 'lokal', 'karena', 'perintah', 'atau', 'karena', 'kas']</t>
+          <t>['kita', 'gerak', 'cepat', 'gerak', 'bersama', 'dan', 'garap', 'semua', 'potensi', 'di', 'desa', 'tersebut', 'untuk', 'meningkatkan', 'sektor', 'pariwisata', 'amp', 'eko']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>['kita', 'gerak', 'cepat', 'gerak', 'bersama', 'dan', 'garap', 'semua', 'potensi', 'di', 'desa', 'tersebut', 'untuk', 'meningkatkan', 'sektor', 'pariwisata', 'amp', 'eko']</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>['acara', 'berharap', 'masyarakat', 'beli', 'produk', 'lokal', 'perintah', 'kas']</t>
-        </is>
-      </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['acara', 'harap', 'masyarakat', 'beli', 'produk', 'lokal', 'perintah', 'kas']</t>
+          <t>['gerak', 'cepat', 'gerak', 'garap', 'potensi', 'desa', 'meningkatkan', 'sektor', 'pariwisata', 'eko']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['gerak', 'cepat', 'gerak', 'garap', 'potensi', 'desa', 'tingkat', 'sektor', 'pariwisata', 'eko']</t>
         </is>
       </c>
     </row>
@@ -2383,34 +2653,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>21923</v>
+        <v>30501</v>
       </c>
       <c r="C55" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>di tengah pandemi amp melambatnya ekonomi semangat kita dlm membela produk ekonomi kreatif sangat terlihat di acara</t>
+          <t>di sulawesi utara sendiri ada desa wisata yang sedang kami kembangkan desa wisata berkembang desa wisata rintisan</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['di', 'tengah', 'pandemi', 'amp', 'melambatnya', 'ekonomi', 'semangat', 'kita', 'dlm', 'membela', 'produk', 'ekonomi', 'kreatif', 'sangat', 'terlihat', 'di', 'acara']</t>
+          <t>['di', 'sulawesi', 'utara', 'sendiri', 'ada', 'desa', 'wisata', 'yang', 'sedang', 'kami', 'kembangkan', 'desa', 'wisata', 'berkembang', 'desa', 'wisata', 'rintisan']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['di', 'sulawesi', 'utara', 'sendiri', 'ada', 'desa', 'wisata', 'yang', 'sedang', 'kami', 'kembangkan', 'desa', 'wisata', 'berkembang', 'desa', 'wisata', 'rintisan']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['pandemi', 'melambatnya', 'ekonomi', 'semangat', 'dlm', 'membela', 'produk', 'ekonomi', 'kreatif', 'acara']</t>
+          <t>&lt;FreqDist with 13 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['pandemi', 'lambat', 'ekonomi', 'semangat', 'dlm', 'bela', 'produk', 'ekonomi', 'kreatif', 'acara']</t>
+          <t>['sulawesi', 'utara', 'desa', 'wisata', 'kembangkan', 'desa', 'wisata', 'berkembang', 'desa', 'wisata', 'rintisan']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['sulawesi', 'utara', 'desa', 'wisata', 'kembang', 'desa', 'wisata', 'kembang', 'desa', 'wisata', 'rintis']</t>
         </is>
       </c>
     </row>
@@ -2419,34 +2694,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>21924</v>
+        <v>30502</v>
       </c>
       <c r="C56" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>wisata berbasis storytelling ini dapat menjadi terobosan baru untuk memperkenalkan destinasi wisata di indonesia</t>
+          <t>menutup keseluruhan agenda hari ini dengan berdiskusi dengan gubernur sulawesi utara bapak olly dondokambey kami</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['wisata', 'berbasis', 'storytelling', 'ini', 'dapat', 'menjadi', 'terobosan', 'baru', 'untuk', 'memperkenalkan', 'destinasi', 'wisata', 'di', 'indonesia']</t>
+          <t>['menutup', 'keseluruhan', 'agenda', 'hari', 'ini', 'dengan', 'berdiskusi', 'dengan', 'gubernur', 'sulawesi', 'utara', 'bapak', 'olly', 'dondokambey', 'kami']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['menutup', 'keseluruhan', 'agenda', 'hari', 'ini', 'dengan', 'berdiskusi', 'dengan', 'gubernur', 'sulawesi', 'utara', 'bapak', 'olly', 'dondokambey', 'kami']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['wisata', 'berbasis', 'storytelling', 'terobosan', 'memperkenalkan', 'destinasi', 'wisata', 'indonesia']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['wisata', 'bas', 'storytelling', 'terobos', 'kenal', 'destinasi', 'wisata', 'indonesia']</t>
+          <t>['menutup', 'agenda', 'berdiskusi', 'gubernur', 'sulawesi', 'utara', 'olly', 'dondokambey']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['tutup', 'agenda', 'diskus', 'gubernur', 'sulawesi', 'utara', 'olly', 'dondokambey']</t>
         </is>
       </c>
     </row>
@@ -2455,34 +2735,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>21925</v>
+        <v>30503</v>
       </c>
       <c r="C57" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>kisahkisah legenda atau cerita rakyat seperti inilah yang bisa kita angkat sebagai nilai tambah bagi wisatawan unt</t>
+          <t>saya optimis bahwa ekonomi kreatif akan menghadirkan solusi kepada kita dalam beradaptasi dengan dunia baru teruta</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['kisahkisah', 'legenda', 'atau', 'cerita', 'rakyat', 'seperti', 'inilah', 'yang', 'bisa', 'kita', 'angkat', 'sebagai', 'nilai', 'tambah', 'bagi', 'wisatawan', 'unt']</t>
+          <t>['saya', 'optimis', 'bahwa', 'ekonomi', 'kreatif', 'akan', 'menghadirkan', 'solusi', 'kepada', 'kita', 'dalam', 'beradaptasi', 'dengan', 'dunia', 'baru', 'teruta']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['saya', 'optimis', 'bahwa', 'ekonomi', 'kreatif', 'akan', 'menghadirkan', 'solusi', 'kepada', 'kita', 'dalam', 'beradaptasi', 'dengan', 'dunia', 'baru', 'terutama']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['kisahkisah', 'legenda', 'cerita', 'rakyat', 'angkat', 'nilai', 'wisatawan', 'unt']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['kisahkisah', 'legenda', 'cerita', 'rakyat', 'angkat', 'nilai', 'wisatawan', 'unt']</t>
+          <t>['optimis', 'ekonomi', 'kreatif', 'menghadirkan', 'solusi', 'beradaptasi', 'dunia']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['optimis', 'ekonomi', 'kreatif', 'hadir', 'solusi', 'adaptasi', 'dunia']</t>
         </is>
       </c>
     </row>
@@ -2491,34 +2776,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>21926</v>
+        <v>30504</v>
       </c>
       <c r="C58" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>aek sipaulak hosa merupakan legenda raja silahisabungan saat sedang melakukan perjalanan dengan istrinya yang sedan</t>
+          <t xml:space="preserve">saya sepakat dengan wcce yang mengusung semangat kreatif secara inklusif dimana ekonomi kreatif mendobrak </t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['aek', 'sipaulak', 'hosa', 'merupakan', 'legenda', 'raja', 'silahisabungan', 'saat', 'sedang', 'melakukan', 'perjalanan', 'dengan', 'istrinya', 'yang', 'sedan']</t>
+          <t>['saya', 'sepakat', 'dengan', 'wcce', 'yang', 'mengusung', 'semangat', 'kreatif', 'secara', 'inklusif', 'dimana', 'ekonomi', 'kreatif', 'mendobrak']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['saya', 'sepakat', 'dengan', 'wcce', 'yang', 'mengusung', 'semangat', 'kreatif', 'secara', 'inklusif', 'dimana', 'ekonomi', 'kreatif', 'mendobrak']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['aek', 'sipaulak', 'hosa', 'legenda', 'raja', 'silahisabungan', 'perjalanan', 'istrinya', 'sedan']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['aek', 'sipaulak', 'hosa', 'legenda', 'raja', 'silahisabungan', 'jalan', 'istri', 'sedan']</t>
+          <t>['sepakat', 'wcce', 'mengusung', 'semangat', 'kreatif', 'inklusif', 'dimana', 'ekonomi', 'kreatif', 'mendobrak']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['sepakat', 'wcce', 'usung', 'semangat', 'kreatif', 'inklusif', 'mana', 'ekonomi', 'kreatif', 'dobrak']</t>
         </is>
       </c>
     </row>
@@ -2527,34 +2817,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>21927</v>
+        <v>30505</v>
       </c>
       <c r="C59" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>aek sipaolak hosa ini artinya air yang mengembalikan tenaga dipercayai oleh masyarakat sekitar dapat menghilangkan rasa lelah</t>
+          <t>mou kerjasama ekonomi kreatif telah dirintis sejak acara world conference on creative economy wcce di bali</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['aek', 'sipaolak', 'hosa', 'ini', 'artinya', 'air', 'yang', 'mengembalikan', 'tenaga', 'dipercayai', 'oleh', 'masyarakat', 'sekitar', 'dapat', 'menghilangkan', 'rasa', 'lelah']</t>
+          <t>['mou', 'kerjasama', 'ekonomi', 'kreatif', 'telah', 'dirintis', 'sejak', 'acara', 'world', 'conference', 'on', 'creative', 'economy', 'wcce', 'di', 'bali']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['mou', 'kerja, sama', 'ekonomi', 'kreatif', 'telah', 'dirintis', 'sejak', 'acara', 'world', 'conference', 'on', 'creative', 'ekonomi', 'wcce', 'di', 'bali']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['aek', 'sipaolak', 'hosa', 'air', 'mengembalikan', 'tenaga', 'dipercayai', 'masyarakat', 'menghilangkan', 'lelah']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['aek', 'sipaolak', 'hosa', 'air', 'kembali', 'tenaga', 'percaya', 'masyarakat', 'hilang', 'lelah']</t>
+          <t>['mou', 'kerja, sama', 'ekonomi', 'kreatif', 'dirintis', 'acara', 'world', 'conference', 'on', 'creative', 'ekonomi', 'wcce', 'bali']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['mou', 'kerja sama', 'ekonomi', 'kreatif', 'rintis', 'acara', 'world', 'conference', 'on', 'creative', 'ekonomi', 'wcce', 'bal']</t>
         </is>
       </c>
     </row>
@@ -2563,34 +2858,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>21928</v>
+        <v>30506</v>
       </c>
       <c r="C60" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>kali ini saya diajak oleh kawan saya abang hinca pandjaitan xiii mengunjungi spot wisata pemandian aek sipaolak ho</t>
+          <t xml:space="preserve">senang sekali pada hari ini ikatan bilateral indonesia uni emirat arab semakin erat karena ada tiga perjanjian </t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['kali', 'ini', 'saya', 'diajak', 'oleh', 'kawan', 'saya', 'abang', 'hinca', 'pandjaitan', 'xiii', 'mengunjungi', 'spot', 'wisata', 'pemandian', 'aek', 'sipaolak', 'ho']</t>
+          <t>['senang', 'sekali', 'pada', 'hari', 'ini', 'ikatan', 'bilateral', 'indonesia', 'uni', 'emirat', 'arab', 'semakin', 'erat', 'karena', 'ada', 'tiga', 'perjanjian']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['senang', 'sekali', 'pada', 'hari', 'ini', 'ikatan', 'bilateral', 'indonesia', 'uni', 'emirat', 'arab', 'semakin', 'erat', 'karena', 'ada', 'tiga', 'perjanjian']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['kali', 'diajak', 'kawan', 'abang', 'hinca', 'pandjaitan', 'xiii', 'mengunjungi', 'spot', 'wisata', 'pemandian', 'aek', 'sipaolak', 'ho']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['kali', 'ajak', 'kawan', 'abang', 'hinca', 'pandjaitan', 'xiii', 'unjung', 'spot', 'wisata', 'mandi', 'aek', 'sipaolak', 'ho']</t>
+          <t>['senang', 'ikatan', 'bilateral', 'indonesia', 'uni', 'emirat', 'arab', 'erat', 'perjanjian']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['senang', 'ikat', 'bilateral', 'indonesia', 'uni', 'emirat', 'arab', 'erat', 'janji']</t>
         </is>
       </c>
     </row>
@@ -2599,34 +2899,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>21929</v>
+        <v>30507</v>
       </c>
       <c r="C61" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>melalui program ini kami ingin mendorong masyarakat untuk membeli produk lokal sumatera utara bukan karena diharu</t>
+          <t xml:space="preserve">kita ingin menebar motivasi bahwa sektor pariwisata pasti segera bangkit sekarang sudah bukan lagi tentang pergi </t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['melalui', 'program', 'ini', 'kami', 'ingin', 'mendorong', 'masyarakat', 'untuk', 'membeli', 'produk', 'lokal', 'sumatera', 'utara', 'bukan', 'karena', 'diharu']</t>
+          <t>['kita', 'ingin', 'menebar', 'motivasi', 'bahwa', 'sektor', 'pariwisata', 'pasti', 'segera', 'bangkit', 'sekarang', 'sudah', 'bukan', 'lagi', 'tentang', 'pergi']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
+          <t>['kita', 'ingin', 'menebar', 'motivasi', 'bahwa', 'sektor', 'pariwisata', 'pasti', 'segera', 'bangkit', 'sekarang', 'sudah', 'bukan', 'lagi', 'tentang', 'pergi']</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>['program', 'mendorong', 'masyarakat', 'membeli', 'produk', 'lokal', 'sumatera', 'utara', 'diharu']</t>
-        </is>
-      </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['program', 'dorong', 'masyarakat', 'beli', 'produk', 'lokal', 'sumatera', 'utara', 'haru']</t>
+          <t>['menebar', 'motivasi', 'sektor', 'pariwisata', 'bangkit', 'pergi']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['tebar', 'motivasi', 'sektor', 'pariwisata', 'bangkit', 'pergi']</t>
         </is>
       </c>
     </row>
@@ -2635,34 +2940,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>21930</v>
+        <v>30508</v>
       </c>
       <c r="C62" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>sebagai bentuk dukungan pada gernas bangga buatan indonesia yg telah dicanangkan bapak presiden pada</t>
+          <t>meninjau vaksinasi massal bagi para pelaku pariwisata yang dilaksanakan di graha bumi beringin manado sulawesi ut</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['sebagai', 'bentuk', 'dukungan', 'pada', 'gernas', 'bangga', 'buatan', 'indonesia', 'yg', 'telah', 'dicanangkan', 'bapak', 'presiden', 'pada']</t>
+          <t>['meninjau', 'vaksinasi', 'massal', 'bagi', 'para', 'pelaku', 'pariwisata', 'yang', 'dilaksanakan', 'di', 'graha', 'bumi', 'beringin', 'manado', 'sulawesi', 'ut']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['meninjau', 'vaksinasi', 'massal', 'bagi', 'para', 'pelaku', 'pariwisata', 'yang', 'dilaksanakan', 'di', 'graha', 'bumi', 'beringin', 'manado', 'sulawesi', 'ut']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['bentuk', 'dukungan', 'gernas', 'bangga', 'buatan', 'indonesia', 'dicanangkan', 'presiden']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['bentuk', 'dukung', 'gernas', 'bangga', 'buat', 'indonesia', 'canang', 'presiden']</t>
+          <t>['meninjau', 'vaksinasi', 'massal', 'pelaku', 'pariwisata', 'dilaksanakan', 'graha', 'bumi', 'beringin', 'manado', 'sulawesi', 'ut']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['tinjau', 'vaksinasi', 'massal', 'laku', 'pariwisata', 'laksana', 'graha', 'bumi', 'beringin', 'manado', 'sulawesi', 'ut']</t>
         </is>
       </c>
     </row>
@@ -2671,34 +2981,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>21931</v>
+        <v>30509</v>
       </c>
       <c r="C63" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>beli kreatif danau toba memiliki program utama yakni pendampingan berupa peningkatan upskilling serta pemasaran</t>
+          <t>selamat pagi indonesia pagi ini bergerak menuju likupang sebuah kawasan di dekat manado sulawesi utara yang men</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['beli', 'kreatif', 'danau', 'toba', 'memiliki', 'program', 'utama', 'yakni', 'pendampingan', 'berupa', 'peningkatan', 'upskilling', 'serta', 'pemasaran']</t>
+          <t>['selamat', 'pagi', 'indonesia', 'pagi', 'ini', 'bergerak', 'menuju', 'likupang', 'sebuah', 'kawasan', 'di', 'dekat', 'manado', 'sulawesi', 'utara', 'yang', 'men']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['selamat', 'pagi', 'indonesia', 'pagi', 'ini', 'bergerak', 'menuju', 'likupang', 'sebuah', 'kawasan', 'di', 'dekat', 'manado', 'sulawesi', 'utara', 'yang', 'men']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['beli', 'kreatif', 'danau', 'toba', 'memiliki', 'program', 'utama', 'pendampingan', 'peningkatan', 'upskilling', 'pemasaran']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['beli', 'kreatif', 'danau', 'toba', 'milik', 'program', 'utama', 'damping', 'tingkat', 'upskilling', 'pasar']</t>
+          <t>['selamat', 'pagi', 'indonesia', 'pagi', 'bergerak', 'likupang', 'kawasan', 'manado', 'sulawesi', 'utara', 'men']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['selamat', 'pagi', 'indonesia', 'pagi', 'gerak', 'likupang', 'kawasan', 'manado', 'sulawesi', 'utara', 'men']</t>
         </is>
       </c>
     </row>
@@ -2707,34 +3022,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>21932</v>
+        <v>30510</v>
       </c>
       <c r="C64" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">dengan memakai pakaian adat songket tapak catur dengan motif ulos simalungun sore hari ini saya menghadiri acara </t>
+          <t>kita juga akan mendorong adanya paket wisata menarik ke destinasi pariwisata super prioritas agar bisa lebih dipe</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['dengan', 'memakai', 'pakaian', 'adat', 'songket', 'tapak', 'catur', 'dengan', 'motif', 'ulos', 'simalungun', 'sore', 'hari', 'ini', 'saya', 'menghadiri', 'acara']</t>
+          <t>['kita', 'juga', 'akan', 'mendorong', 'adanya', 'paket', 'wisata', 'menarik', 'ke', 'destinasi', 'pariwisata', 'super', 'prioritas', 'agar', 'bisa', 'lebih', 'dipe']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['kita', 'juga', 'akan', 'mendorong', 'adanya', 'paket', 'wisata', 'menarik', 'ke', 'destinasi', 'pariwisata', 'super', 'prioritas', 'agar', 'bisa', 'lebih', 'dipe']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['memakai', 'pakaian', 'adat', 'songket', 'tapak', 'catur', 'motif', 'ulos', 'simalungun', 'sore', 'menghadiri', 'acara']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['pakai', 'pakai', 'adat', 'songket', 'tapak', 'catur', 'motif', 'ulos', 'simalungun', 'sore', 'hadir', 'acara']</t>
+          <t>['mendorong', 'paket', 'wisata', 'menarik', 'destinasi', 'pariwisata', 'super', 'prioritas', 'dipe']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['dorong', 'paket', 'wisata', 'tarik', 'destinasi', 'pariwisata', 'super', 'prioritas', 'dipe']</t>
         </is>
       </c>
     </row>
@@ -2743,34 +3063,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>21933</v>
+        <v>30511</v>
       </c>
       <c r="C65" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">pagi tadi sengaja bersepeda menuju air terjun sipisopiso di desa tongging kecamatan merek kabupaten karo untuk </t>
+          <t>sudah saatnya kita mengaktifkan kembali kerja sama yang baru di bidang pariwisata dan ekonomi kreatif antara kedua</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['pagi', 'tadi', 'sengaja', 'bersepeda', 'menuju', 'air', 'terjun', 'sipisopiso', 'di', 'desa', 'tongging', 'kecamatan', 'merek', 'kabupaten', 'karo', 'untuk']</t>
+          <t>['sudah', 'saatnya', 'kita', 'mengaktifkan', 'kembali', 'kerja', 'sama', 'yang', 'baru', 'di', 'bidang', 'pariwisata', 'dan', 'ekonomi', 'kreatif', 'antara', 'kedua']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['sudah', 'saatnya', 'kita', 'mengaktifkan', 'kembali', 'kerja', 'sama', 'yang', 'baru', 'di', 'bidang', 'pariwisata', 'dan', 'ekonomi', 'kreatif', 'antara', 'kedua']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['pagi', 'sengaja', 'bersepeda', 'air', 'terjun', 'sipisopiso', 'desa', 'tongging', 'kecamatan', 'merek', 'kabupaten', 'karo']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['pagi', 'sengaja', 'sepeda', 'air', 'terjun', 'sipisopiso', 'desa', 'tongging', 'camat', 'merek', 'kabupaten', 'karo']</t>
+          <t>['mengaktifkan', 'kerja', 'bidang', 'pariwisata', 'ekonomi', 'kreatif']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['aktif', 'kerja', 'bidang', 'pariwisata', 'ekonomi', 'kreatif']</t>
         </is>
       </c>
     </row>
@@ -2779,34 +3104,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>21934</v>
+        <v>30512</v>
       </c>
       <c r="C66" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>turut berduka atas meninggalnya bapak  gede ardika menteri kebudayaan amp pariwisata periode terima kasi</t>
+          <t>kerjasama tersebut meliputi pertukaran data informasi studi penilitian pendidikan pelatihan promosi dan pertem</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['turut', 'berduka', 'atas', 'meninggalnya', 'bapak', 'gede', 'ardika', 'menteri', 'kebudayaan', 'amp', 'pariwisata', 'periode', 'terima', 'kasi']</t>
+          <t>['kerjasama', 'tersebut', 'meliputi', 'pertukaran', 'data', 'informasi', 'studi', 'penilitian', 'pendidikan', 'pelatihan', 'promosi', 'dan', 'pertem']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['kerja, sama', 'tersebut', 'meliputi', 'pertukaran', 'data', 'informasi', 'studi', 'penilitian', 'pendidikan', 'pelatihan', 'promosi', 'dan', 'pertem']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['berduka', 'meninggalnya', 'gede', 'ardika', 'menteri', 'kebudayaan', 'pariwisata', 'periode', 'terima', 'kasi']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['duka', 'tinggal', 'gede', 'ardika', 'menteri', 'budaya', 'pariwisata', 'periode', 'terima', 'kasi']</t>
+          <t>['kerja, sama', 'meliputi', 'pertukaran', 'data', 'informasi', 'studi', 'penilitian', 'pendidikan', 'pelatihan', 'promosi', 'pertem']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['kerja sama', 'liput', 'tukar', 'data', 'informasi', 'studi', 'penilitian', 'didik', 'latih', 'promosi', 'tem']</t>
         </is>
       </c>
     </row>
@@ -2815,34 +3145,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>21935</v>
+        <v>30513</v>
       </c>
       <c r="C67" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>setibanya di bandara silangit tapanuli utara langsung sarapan mie gomak ikon kuliner khas sumatera utara yang te</t>
+          <t>pagi ini melakukan rapat dengan duta besar uzbekistan untuk indonesia mr ulugbek rosukulov indonesia dan uzbeki</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['setibanya', 'di', 'bandara', 'silangit', 'tapanuli', 'utara', 'langsung', 'sarapan', 'mie', 'gomak', 'ikon', 'kuliner', 'khas', 'sumatera', 'utara', 'yang', 'te']</t>
+          <t>['pagi', 'ini', 'melakukan', 'rapat', 'dengan', 'duta', 'besar', 'uzbekistan', 'untuk', 'indonesia', 'mr', 'ulugbek', 'rosukulov', 'indonesia', 'dan', 'uzbeki']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['pagi', 'ini', 'melakukan', 'rapat', 'dengan', 'duta', 'besar', 'uzbekistan', 'untuk', 'indonesia', 'mr', 'ulugbek', 'rosukulov', 'indonesia', 'dan', 'uzbeki']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['bandara', 'silangit', 'tapanuli', 'utara', 'langsung', 'sarapan', 'mie', 'gomak', 'ikon', 'kuliner', 'khas', 'sumatera', 'utara', 'te']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['bandara', 'silangit', 'tapanuli', 'utara', 'langsung', 'sarap', 'mie', 'gomak', 'ikon', 'kuliner', 'khas', 'sumatera', 'utara', 'te']</t>
+          <t>['pagi', 'rapat', 'duta', 'uzbekistan', 'indonesia', 'mr', 'ulugbek', 'rosukulov', 'indonesia', 'uzbeki']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['pagi', 'rapat', 'duta', 'uzbekistan', 'indonesia', 'mr', 'ulugbek', 'rosukulov', 'indonesia', 'uzbeki']</t>
         </is>
       </c>
     </row>
@@ -2851,34 +3186,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>21936</v>
+        <v>30514</v>
       </c>
       <c r="C68" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>tadi kami menggunakan pesawat citilink mendapat layanan yang luar biasa apalagi pantunpantunnya yang selalu meng</t>
+          <t>selain itu terkait perguruan tinggi negeri pariwisata ptnp kita ingin pastikan kualitas pendidikannya berstanda</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['tadi', 'kami', 'menggunakan', 'pesawat', 'citilink', 'mendapat', 'layanan', 'yang', 'luar', 'biasa', 'apalagi', 'pantunpantunnya', 'yang', 'selalu', 'meng']</t>
+          <t>['selain', 'itu', 'terkait', 'perguruan', 'tinggi', 'negeri', 'pariwisata', 'ptnp', 'kita', 'ingin', 'pastikan', 'kualitas', 'pendidikannya', 'berstanda']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['selain', 'itu', 'terkait', 'perguruan', 'tinggi', 'negeri', 'pariwisata', 'ptnp', 'kita', 'ingin', 'pastikan', 'kualitas', 'pendidikannya', 'berstanda']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['pesawat', 'citilink', 'layanan', 'pantunpantunnya', 'meng']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['pesawat', 'citilink', 'layan', 'pantunpantunnya', 'meng']</t>
+          <t>['terkait', 'perguruan', 'negeri', 'pariwisata', 'ptnp', 'pastikan', 'kualitas', 'pendidikannya', 'berstanda']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['kait', 'guru', 'negeri', 'pariwisata', 'ptnp', 'pasti', 'kualitas', 'didik', 'berstanda']</t>
         </is>
       </c>
     </row>
@@ -2887,34 +3227,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>21937</v>
+        <v>30515</v>
       </c>
       <c r="C69" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>tiba di bandara silangit tapanuli utara sumatera utara disambut dengan cuaca yang cerah dan sangat sejuk</t>
+          <t>sore ini menggelar rapat dengan menteri pendidikan dan kebudayaan mas membahas beberapa hal yang</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['tiba', 'di', 'bandara', 'silangit', 'tapanuli', 'utara', 'sumatera', 'utara', 'disambut', 'dengan', 'cuaca', 'yang', 'cerah', 'dan', 'sangat', 'sejuk']</t>
+          <t>['sore', 'ini', 'menggelar', 'rapat', 'dengan', 'menteri', 'pendidikan', 'dan', 'kebudayaan', 'mas', 'membahas', 'beberapa', 'hal', 'yang']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['sore', 'ini', 'menggelar', 'rapat', 'dengan', 'menteri', 'pendidikan', 'dan', 'kebudayaan', 'mas', 'membahas', 'beberapa', 'hal', 'yang']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['bandara', 'silangit', 'tapanuli', 'utara', 'sumatera', 'utara', 'disambut', 'cuaca', 'cerah', 'sejuk']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['bandara', 'silangit', 'tapanuli', 'utara', 'sumatera', 'utara', 'sambut', 'cuaca', 'cerah', 'sejuk']</t>
+          <t>['sore', 'menggelar', 'rapat', 'menteri', 'pendidikan', 'kebudayaan', 'mas', 'membahas']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['sore', 'gelar', 'rapat', 'menteri', 'didik', 'budaya', 'mas', 'bahas']</t>
         </is>
       </c>
     </row>
@@ -2923,34 +3268,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>21938</v>
+        <v>30516</v>
       </c>
       <c r="C70" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>selanjutnya progres desa wisata hibah pariwisata dan progres gerakan nasional bangga buatan indonesia dan bangga</t>
+          <t>namun onboarding digitaliasi saja belumlah cukup tantangan berikutnya adalah bagaimana bisa membantu umkm dan pel</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['selanjutnya', 'progres', 'desa', 'wisata', 'hibah', 'pariwisata', 'dan', 'progres', 'gerakan', 'nasional', 'bangga', 'buatan', 'indonesia', 'dan', 'bangga']</t>
+          <t>['namun', 'onboarding', 'digitaliasi', 'saja', 'belumlah', 'cukup', 'tantangan', 'berikutnya', 'adalah', 'bagaimana', 'bisa', 'membantu', 'umkm', 'dan', 'pel']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 15 outcomes&gt;</t>
+          <t>['namun', 'onboarding', 'digitaliasi', 'saja', 'belumlah', 'cukup', 'tantangan', 'berikutnya', 'adalah', 'bagaimana', 'bisa', 'membantu', 'usaha, mikro, kecil, dan, menengah', 'dan', 'pel']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['progres', 'desa', 'wisata', 'hibah', 'pariwisata', 'progres', 'gerakan', 'nasional', 'bangga', 'buatan', 'indonesia', 'bangga']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['progres', 'desa', 'wisata', 'hibah', 'pariwisata', 'progres', 'gera', 'nasional', 'bangga', 'buat', 'indonesia', 'bangga']</t>
+          <t>['onboarding', 'digitaliasi', 'tantangan', 'membantu', 'usaha, mikro, kecil, dan, menengah', 'pel']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['onboarding', 'digitaliasi', 'tantang', 'bantu', 'usaha mikro kecil dan tengah', 'pel']</t>
         </is>
       </c>
     </row>
@@ -2959,34 +3309,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>21939</v>
+        <v>30517</v>
       </c>
       <c r="C71" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>lalu progres pengembangan destinasi super prioritas dan membuka perbatasan dengan menerapkan konsep travel bubble</t>
+          <t>gerakan nasional bangga buatan indonesia yang dicanangkan pada tahun terbukti berhasil membantu umkm untuk ban</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['lalu', 'progres', 'pengembangan', 'destinasi', 'super', 'prioritas', 'dan', 'membuka', 'perbatasan', 'dengan', 'menerapkan', 'konsep', 'travel', 'bubble']</t>
+          <t>['gerakan', 'nasional', 'bangga', 'buatan', 'indonesia', 'yang', 'dicanangkan', 'pada', 'tahun', 'terbukti', 'berhasil', 'membantu', 'umkm', 'untuk', 'ban']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['gerakan', 'nasional', 'bangga', 'buatan', 'indonesia', 'yang', 'dicanangkan', 'pada', 'tahun', 'terbukti', 'berhasil', 'membantu', 'usaha, mikro, kecil, dan, menengah', 'untuk', 'ban']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['progres', 'pengembangan', 'destinasi', 'super', 'prioritas', 'membuka', 'perbatasan', 'menerapkan', 'konsep', 'travel', 'bubble']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['progres', 'kembang', 'destinasi', 'super', 'prioritas', 'buka', 'batas', 'terap', 'konsep', 'travel', 'bubble']</t>
+          <t>['gerakan', 'nasional', 'bangga', 'buatan', 'indonesia', 'dicanangkan', 'terbukti', 'berhasil', 'membantu', 'usaha, mikro, kecil, dan, menengah', 'ban']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['gera', 'nasional', 'bangga', 'buat', 'indonesia', 'canang', 'bukti', 'hasil', 'bantu', 'usaha mikro kecil dan tengah', 'ban']</t>
         </is>
       </c>
     </row>
@@ -2995,34 +3350,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>21940</v>
+        <v>30518</v>
       </c>
       <c r="C72" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>pertama adalah update progres sertifikasi chse untuk para pelaku usaha pariwisata amp ekonomi kreatif</t>
+          <t>menggunakan batik tenun khas ntb yang saya dapatkan langsung dari desa sukarara lombok tengah pagi ini membuka pe</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['pertama', 'adalah', 'update', 'progres', 'sertifikasi', 'chse', 'untuk', 'para', 'pelaku', 'usaha', 'pariwisata', 'amp', 'ekonomi', 'kreatif']</t>
+          <t>['menggunakan', 'batik', 'tenun', 'khas', 'ntb', 'yang', 'saya', 'dapatkan', 'langsung', 'dari', 'desa', 'sukarara', 'lombok', 'tengah', 'pagi', 'ini', 'membuka', 'pe']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['menggunakan', 'batik', 'tenun', 'khas', 'ntb', 'yang', 'saya', 'dapatkan', 'langsung', 'dari', 'desa', 'sukarara', 'lombok', 'tengah', 'pagi', 'ini', 'membuka', 'pe']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['update', 'progres', 'sertifikasi', 'chse', 'pelaku', 'usaha', 'pariwisata', 'ekonomi', 'kreatif']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['update', 'progres', 'sertifikasi', 'chse', 'laku', 'usaha', 'pariwisata', 'ekonomi', 'kreatif']</t>
+          <t>['batik', 'tenun', 'khas', 'ntb', 'dapatkan', 'langsung', 'desa', 'sukarara', 'lombok', 'pagi', 'membuka', 'pe']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['batik', 'tenun', 'khas', 'ntb', 'dapat', 'langsung', 'desa', 'sukarara', 'lombok', 'pagi', 'buka', 'pe']</t>
         </is>
       </c>
     </row>
@@ -3031,34 +3391,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>21941</v>
+        <v>30519</v>
       </c>
       <c r="C73" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>siang ini melakukan rapat pimpinan membahas progres dari programprogram yang kita harapkan dapat me</t>
+          <t xml:space="preserve">walaupun bukan  marketing tapi saya berhasil membuat kang datang jauhjauh dari bogor untuk mencoba </t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['siang', 'ini', 'melakukan', 'rapat', 'pimpinan', 'membahas', 'progres', 'dari', 'programprogram', 'yang', 'kita', 'harapkan', 'dapat', 'me']</t>
+          <t>['walaupun', 'bukan', 'marketing', 'tapi', 'saya', 'berhasil', 'membuat', 'kang', 'datang', 'jauhjauh', 'dari', 'bogor', 'untuk', 'mencoba']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
+          <t>['walaupun', 'bukan', 'marketing', 'tapi', 'saya', 'berhasil', 'membuat', 'kang', 'datang', 'jauhjauh', 'dari', 'bogor', 'untuk', 'mencoba']</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>['siang', 'rapat', 'pimpinan', 'membahas', 'progres', 'programprogram', 'harapkan', 'me']</t>
-        </is>
-      </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['siang', 'rapat', 'pimpin', 'bahas', 'progres', 'programprogram', 'harap', 'me']</t>
+          <t>['marketing', 'berhasil', 'kang', 'jauhjauh', 'bogor', 'mencoba']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['marketing', 'hasil', 'kang', 'jauhjauh', 'bogor', 'coba']</t>
         </is>
       </c>
     </row>
@@ -3067,34 +3432,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>21942</v>
+        <v>30520</v>
       </c>
       <c r="C74" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>pakaian ini didesain oleh desainer asal sulawesi tenggara yang telah mendunia kusminto herman prasetyo dengan mem</t>
+          <t>apresiasi sekali produkproduk kreatif anak bangsa kreatifitas seperti ini saya yakin akan membuka banyak lapangan</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['pakaian', 'ini', 'didesain', 'oleh', 'desainer', 'asal', 'sulawesi', 'tenggara', 'yang', 'telah', 'mendunia', 'kusminto', 'herman', 'prasetyo', 'dengan', 'mem']</t>
+          <t>['apresiasi', 'sekali', 'produkproduk', 'kreatif', 'anak', 'bangsa', 'kreatifitas', 'seperti', 'ini', 'saya', 'yakin', 'akan', 'membuka', 'banyak', 'lapangan']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['apresiasi', 'sekali', 'produkproduk', 'kreatif', 'anak', 'bangsa', 'kreativitas', 'seperti', 'ini', 'saya', 'yakin', 'akan', 'membuka', 'banyak', 'lapangan']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['pakaian', 'didesain', 'desainer', 'sulawesi', 'tenggara', 'mendunia', 'kusminto', 'herman', 'prasetyo', 'mem']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['pakai', 'desain', 'desainer', 'sulawesi', 'tenggara', 'dunia', 'kusminto', 'herman', 'prasetyo', 'mem']</t>
+          <t>['apresiasi', 'produkproduk', 'kreatif', 'anak', 'bangsa', 'kreativitas', 'membuka', 'lapangan']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['apresiasi', 'produkproduk', 'kreatif', 'anak', 'bangsa', 'kreativitas', 'buka', 'lapang']</t>
         </is>
       </c>
     </row>
@@ -3103,34 +3473,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>21943</v>
+        <v>30521</v>
       </c>
       <c r="C75" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>selain membahas potensi kerjasama antar kedua negara saya juga memperkenalkan pakaian adat yang hari ini saya guna</t>
+          <t xml:space="preserve">motor listrik si gesits menggunakan tenaga listrik yang mampu menempuh jarak sejauh km dan mencapai kecepatan </t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['selain', 'membahas', 'potensi', 'kerjasama', 'antar', 'kedua', 'negara', 'saya', 'juga', 'memperkenalkan', 'pakaian', 'adat', 'yang', 'hari', 'ini', 'saya', 'guna']</t>
+          <t>['motor', 'listrik', 'si', 'gesits', 'menggunakan', 'tenaga', 'listrik', 'yang', 'mampu', 'menempuh', 'jarak', 'sejauh', 'km', 'dan', 'mencapai', 'kecepatan']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['motor', 'listrik', 'sih', 'gesits', 'menggunakan', 'tenaga', 'listrik', 'yang', 'mampu', 'menempuh', 'jarak', 'sejauh', 'km', 'dan', 'mencapai', 'kecepatan']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['membahas', 'potensi', 'kerjasama', 'negara', 'memperkenalkan', 'pakaian', 'adat']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['bahas', 'potensi', 'kerjasama', 'negara', 'kenal', 'pakai', 'adat']</t>
+          <t>['motor', 'listrik', 'gesits', 'tenaga', 'listrik', 'menempuh', 'jarak', 'km', 'mencapai', 'kecepatan']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['motor', 'listrik', 'gesits', 'tenaga', 'listrik', 'tempuh', 'jarak', 'km', 'capai', 'cepat']</t>
         </is>
       </c>
     </row>
@@ -3139,34 +3514,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>21944</v>
+        <v>30522</v>
       </c>
       <c r="C76" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>mudahmudahan dengan berbagai persiapan yang sedang kita lakukan saat ini pasca pandemi nanti kita akan bangkit le</t>
+          <t>mencoba motor listrik inovasi karya anak bangsa kolaborasi dari dunia pendidikan institut teknologi sepuluh nopem</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['mudahmudahan', 'dengan', 'berbagai', 'persiapan', 'yang', 'sedang', 'kita', 'lakukan', 'saat', 'ini', 'pasca', 'pandemi', 'nanti', 'kita', 'akan', 'bangkit', 'le']</t>
+          <t>['mencoba', 'motor', 'listrik', 'inovasi', 'karya', 'anak', 'bangsa', 'kolaborasi', 'dari', 'dunia', 'pendidikan', 'institut', 'teknologi', 'sepuluh', 'nopem']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['mencoba', 'motor', 'listrik', 'inovasi', 'karya', 'anak', 'bangsa', 'kolaborasi', 'dari', 'dunia', 'pendidikan', 'institut', 'teknologi', 'sepuluh', 'nopem']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['mudahmudahan', 'persiapan', 'lakukan', 'pasca', 'pandemi', 'bangkit', 'le']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['mudahmudahan', 'siap', 'laku', 'pasca', 'pandemi', 'bangkit', 'le']</t>
+          <t>['mencoba', 'motor', 'listrik', 'inovasi', 'karya', 'anak', 'bangsa', 'kolaborasi', 'dunia', 'pendidikan', 'institut', 'teknologi', 'sepuluh', 'nopem']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['coba', 'motor', 'listrik', 'inovasi', 'karya', 'anak', 'bangsa', 'kolaborasi', 'dunia', 'didik', 'institut', 'teknologi', 'puluh', 'nopem']</t>
         </is>
       </c>
     </row>
@@ -3175,34 +3555,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>21945</v>
+        <v>30523</v>
       </c>
       <c r="C77" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>selain itu indonesia juga memiliki begitu banyak pantai yang sangat indah dan ini akan menjadi destinasi utama bagi wisatawan hungaria</t>
+          <t>ini adalah persiapan kita untuk menyambut kembali wisatawan mancanegara dengan menerapkan konsep free covid corridor atau travel bubble</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['selain', 'itu', 'indonesia', 'juga', 'memiliki', 'begitu', 'banyak', 'pantai', 'yang', 'sangat', 'indah', 'dan', 'ini', 'akan', 'menjadi', 'destinasi', 'utama', 'bagi', 'wisatawan', 'hungaria']</t>
+          <t>['ini', 'adalah', 'persiapan', 'kita', 'untuk', 'menyambut', 'kembali', 'wisatawan', 'mancanegara', 'dengan', 'menerapkan', 'konsep', 'free', 'covid', 'corridor', 'atau', 'travel', 'bubble']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['ini', 'adalah', 'persiapan', 'kita', 'untuk', 'menyambut', 'kembali', 'wisatawan', 'mancanegara', 'dengan', 'menerapkan', 'konsep', 'free', 'covid', 'corridor', 'atau', 'travel', 'bubble']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['indonesia', 'memiliki', 'pantai', 'indah', 'destinasi', 'utama', 'wisatawan', 'hungaria']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['indonesia', 'milik', 'pantai', 'indah', 'destinasi', 'utama', 'wisatawan', 'hungaria']</t>
+          <t>['persiapan', 'menyambut', 'wisatawan', 'mancanegara', 'menerapkan', 'konsep', 'free', 'covid', 'corridor', 'travel', 'bubble']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['siap', 'sambut', 'wisatawan', 'mancanegara', 'terap', 'konsep', 'free', 'covid', 'corridor', 'travel', 'bubble']</t>
         </is>
       </c>
     </row>
@@ -3211,34 +3596,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>21946</v>
+        <v>30524</v>
       </c>
       <c r="C78" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>terkait pariwisata indonesia memiliki begitu banyak daya tarik untuk para wisatawan hungaria mulai dari festival</t>
+          <t>semalam melakukan rapat dengan ceo dari air asia tony fernandes dalam rapat ini saya meminta adanya penerbangan</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['terkait', 'pariwisata', 'indonesia', 'memiliki', 'begitu', 'banyak', 'daya', 'tarik', 'untuk', 'para', 'wisatawan', 'hungaria', 'mulai', 'dari', 'festival']</t>
+          <t>['semalam', 'melakukan', 'rapat', 'dengan', 'ceo', 'dari', 'air', 'asia', 'tony', 'fernandes', 'dalam', 'rapat', 'ini', 'saya', 'meminta', 'adanya', 'penerbangan']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['semalam', 'melakukan', 'rapat', 'dengan', 'ceo', 'dari', 'air', 'asia', 'tony', 'fernandes', 'dalam', 'rapat', 'ini', 'saya', 'meminta', 'adanya', 'penerbangan']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['terkait', 'pariwisata', 'indonesia', 'memiliki', 'daya', 'tarik', 'wisatawan', 'hungaria', 'festival']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['kait', 'pariwisata', 'indonesia', 'milik', 'daya', 'tarik', 'wisatawan', 'hungaria', 'festival']</t>
+          <t>['semalam', 'rapat', 'ceo', 'air', 'asia', 'tony', 'fernandes', 'rapat', 'penerbangan']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['malam', 'rapat', 'ceo', 'air', 'asia', 'tony', 'fernandes', 'rapat', 'terbang']</t>
         </is>
       </c>
     </row>
@@ -3247,34 +3637,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>21947</v>
+        <v>30525</v>
       </c>
       <c r="C79" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>seperti kita ketahui wabah covid telah mengguncang hampir semua negara di dunia dan membawa dampak yang luar bia</t>
+          <t>hari ini ayah saya atau biasa saya panggil waba berulang tahun ke alhamdulillah masih sangat fit dan bugar sem</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['seperti', 'kita', 'ketahui', 'wabah', 'covid', 'telah', 'mengguncang', 'hampir', 'semua', 'negara', 'di', 'dunia', 'dan', 'membawa', 'dampak', 'yang', 'luar', 'bia']</t>
+          <t>['hari', 'ini', 'ayah', 'saya', 'atau', 'biasa', 'saya', 'panggil', 'waba', 'berulang', 'tahun', 'ke', 'alhamdulillah', 'masih', 'sangat', 'fit', 'dan', 'bugar', 'sem']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['hari', 'ini', 'ayah', 'saya', 'atau', 'biasa', 'saya', 'panggil', 'wabah', 'berulang', 'tahun', 'ke', 'alhamdulillah', 'masih', 'sangat', 'fit', 'dan', 'bugar', 'sem']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['ketahui', 'wabah', 'covid', 'mengguncang', 'negara', 'dunia', 'membawa', 'dampak', 'bia']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['tahu', 'wabah', 'covid', 'guncang', 'negara', 'dunia', 'bawa', 'dampak', 'bia']</t>
+          <t>['ayah', 'panggil', 'wabah', 'berulang', 'alhamdulillah', 'fit', 'bugar', 'sem']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['ayah', 'panggil', 'wabah', 'ulang', 'alhamdulillah', 'fit', 'bugar', 'sem']</t>
         </is>
       </c>
     </row>
@@ -3283,34 +3678,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>21948</v>
+        <v>30526</v>
       </c>
       <c r="C80" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>baru saja saya kedatangan menteri luar negeri amp perdagangan hungaria he pter szijjrt untuk membahas potensi ker</t>
+          <t>dengan adanya vaksinasi massal ini kita harapkan dapat menyelamatkan mata pencaharian dan lapangan kerja bagi masy</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'saya', 'kedatangan', 'menteri', 'luar', 'negeri', 'amp', 'perdagangan', 'hungaria', 'he', 'pter', 'szijjrt', 'untuk', 'membahas', 'potensi', 'ker']</t>
+          <t>['dengan', 'adanya', 'vaksinasi', 'massal', 'ini', 'kita', 'harapkan', 'dapat', 'menyelamatkan', 'mata', 'pencaharian', 'dan', 'lapangan', 'kerja', 'bagi', 'masy']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['dengan', 'adanya', 'vaksinasi', 'massal', 'ini', 'kita', 'harapkan', 'dapat', 'menyelamatkan', 'mata', 'pencaharian', 'dan', 'lapangan', 'kerja', 'bagi', 'masyarakat']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['kedatangan', 'menteri', 'negeri', 'perdagangan', 'hungaria', 'he', 'pter', 'szijjrt', 'membahas', 'potensi', 'ker']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['datang', 'menteri', 'negeri', 'dagang', 'hungaria', 'he', 'pter', 'szijjrt', 'bahas', 'potensi', 'ker']</t>
+          <t>['vaksinasi', 'massal', 'harapkan', 'menyelamatkan', 'mata', 'pencaharian', 'lapangan', 'kerja', 'masyarakat']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['vaksinasi', 'massal', 'harap', 'selamat', 'mata', 'cahari', 'lapang', 'kerja', 'masyarakat']</t>
         </is>
       </c>
     </row>
@@ -3319,34 +3719,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>21949</v>
+        <v>30527</v>
       </c>
       <c r="C81" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>sesuai arahan presiden yang disampaikan pada hari antikorupsi sedunia semua lembaga pemerintahan harus terus menin</t>
+          <t xml:space="preserve">meninjau langsung vaccine center di nusa dua bali yang diperuntukkan untuk para pelaku parekraf dan juga pramudi </t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['sesuai', 'arahan', 'presiden', 'yang', 'disampaikan', 'pada', 'hari', 'antikorupsi', 'sedunia', 'semua', 'lembaga', 'pemerintahan', 'harus', 'terus', 'menin']</t>
+          <t>['meninjau', 'langsung', 'vaccine', 'center', 'di', 'nusa', 'dua', 'bali', 'yang', 'diperuntukkan', 'untuk', 'para', 'pelaku', 'parekraf', 'dan', 'juga', 'pramudi']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['meninjau', 'langsung', 'vaccine', 'center', 'di', 'nusa', 'dua', 'bali', 'yang', 'diperuntukkan', 'untuk', 'para', 'pelaku', 'parekraf', 'dan', 'juga', 'pramudi']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['sesuai', 'arahan', 'presiden', 'antikorupsi', 'sedunia', 'lembaga', 'pemerintahan', 'menin']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['sesuai', 'arah', 'presiden', 'antikorupsi', 'dunia', 'lembaga', 'perintah', 'tin']</t>
+          <t>['meninjau', 'langsung', 'vaccine', 'center', 'nusa', 'bali', 'diperuntukkan', 'pelaku', 'parekraf', 'pramudi']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['tinjau', 'langsung', 'vaccine', 'center', 'nusa', 'bal', 'untuk', 'laku', 'parekraf', 'pramudi']</t>
         </is>
       </c>
     </row>
@@ -3355,34 +3760,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>21950</v>
+        <v>30528</v>
       </c>
       <c r="C82" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>kemenparekraf berkolaborasi dengan kpk melalui deputi bidang pendidikan amp peran serta masyarakat melaksanakan kegi</t>
+          <t>vaksin massal untuk pelaku pariwisata dan ekonomi kreatif bali</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['kemenparekraf', 'berkolaborasi', 'dengan', 'kpk', 'melalui', 'deputi', 'bidang', 'pendidikan', 'amp', 'peran', 'serta', 'masyarakat', 'melaksanakan', 'kegi']</t>
+          <t>['vaksin', 'massal', 'untuk', 'pelaku', 'pariwisata', 'dan', 'ekonomi', 'kreatif', 'bali']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['vaksin', 'massal', 'untuk', 'pelaku', 'pariwisata', 'dan', 'ekonomi', 'kreatif', 'bali']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['kemenparekraf', 'berkolaborasi', 'kpk', 'deputi', 'bidang', 'pendidikan', 'peran', 'masyarakat', 'melaksanakan', 'kegi']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['kemenparekraf', 'kolaborasi', 'kpk', 'deputi', 'bidang', 'didik', 'peran', 'masyarakat', 'laksana', 'kegi']</t>
+          <t>['vaksin', 'massal', 'pelaku', 'pariwisata', 'ekonomi', 'kreatif', 'bali']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['vaksin', 'massal', 'laku', 'pariwisata', 'ekonomi', 'kreatif', 'bal']</t>
         </is>
       </c>
     </row>
@@ -3391,34 +3801,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>21951</v>
+        <v>30529</v>
       </c>
       <c r="C83" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>thx pak dino</t>
+          <t xml:space="preserve">bangunannya yang luas memberikan ruang untuk penciptaan lapangan kerja bagi pelaku ekonomi kreatif lokal bersama </t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['thx', 'pak', 'dino']</t>
+          <t>['bangunannya', 'yang', 'luas', 'memberikan', 'ruang', 'untuk', 'penciptaan', 'lapangan', 'kerja', 'bagi', 'pelaku', 'ekonomi', 'kreatif', 'lokal', 'bersama']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['bangunannya', 'yang', 'luas', 'memberikan', 'ruang', 'untuk', 'penciptaan', 'lapangan', 'kerja', 'bagi', 'pelaku', 'ekonomi', 'kreatif', 'lokal', 'bersama']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['thx', 'dino']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['thx', 'dino']</t>
+          <t>['bangunannya', 'luas', 'ruang', 'penciptaan', 'lapangan', 'kerja', 'pelaku', 'ekonomi', 'kreatif', 'lokal']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['bangun', 'luas', 'ruang', 'cipta', 'lapang', 'kerja', 'laku', 'ekonomi', 'kreatif', 'lokal']</t>
         </is>
       </c>
     </row>
@@ -3427,34 +3842,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>21952</v>
+        <v>30530</v>
       </c>
       <c r="C84" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>melalui program grabakselerator batch ini bersama grab ingin mendukung peningkatan kompetensi sdm</t>
+          <t>pagi ini bersama gubernur bali  wayan koster mengunjungi bali art center taman budaya bali ini merupakan tempa</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['melalui', 'program', 'grabakselerator', 'batch', 'ini', 'bersama', 'grab', 'ingin', 'mendukung', 'peningkatan', 'kompetensi', 'sdm']</t>
+          <t>['pagi', 'ini', 'bersama', 'gubernur', 'bali', 'wayan', 'koster', 'mengunjungi', 'bali', 'art', 'center', 'taman', 'budaya', 'bali', 'ini', 'merupakan', 'tempa']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['pagi', 'ini', 'bersama', 'gubernur', 'bali', 'wayan', 'koster', 'mengunjungi', 'bali', 'art', 'center', 'taman', 'budaya', 'bali', 'ini', 'merupakan', 'tempa']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['program', 'grabakselerator', 'batch', 'grab', 'mendukung', 'peningkatan', 'kompetensi', 'sdm']</t>
+          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['program', 'grabakselerator', 'batch', 'grab', 'dukung', 'tingkat', 'kompetensi', 'sdm']</t>
+          <t>['pagi', 'gubernur', 'bali', 'wayan', 'koster', 'mengunjungi', 'bali', 'art', 'center', 'taman', 'budaya', 'bali', 'tempa']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['pagi', 'gubernur', 'bal', 'wayan', 'koster', 'unjung', 'bal', 'art', 'center', 'taman', 'budaya', 'bal', 'tempa']</t>
         </is>
       </c>
     </row>
@@ -3463,34 +3883,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>21953</v>
+        <v>30531</v>
       </c>
       <c r="C85" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>kami juga ingin mengucapkan selamat atas peluncuran program grabakselerator sbg bentuk implementasi dari gernas bbi</t>
+          <t xml:space="preserve">hal ini juga menindaklanjuti arahan dari bapak presiden amp wakil presiden untuk mengangkat potensi yang luar biasa </t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['kami', 'juga', 'ingin', 'mengucapkan', 'selamat', 'atas', 'peluncuran', 'program', 'grabakselerator', 'sbg', 'bentuk', 'implementasi', 'dari', 'gernas', 'bbi']</t>
+          <t>['hal', 'ini', 'juga', 'menindaklanjuti', 'arahan', 'dari', 'bapak', 'presiden', 'amp', 'wakil', 'presiden', 'untuk', 'mengangkat', 'potensi', 'yang', 'luar', 'biasa']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['hal', 'ini', 'juga', 'menindaklanjuti', 'arahan', 'dari', 'bapak', 'presiden', 'amp', 'wakil', 'presiden', 'untuk', 'mengangkat', 'potensi', 'yang', 'luar', 'biasa']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['selamat', 'peluncuran', 'program', 'grabakselerator', 'sbg', 'bentuk', 'implementasi', 'gernas', 'bbi']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['selamat', 'luncur', 'program', 'grabakselerator', 'sbg', 'bentuk', 'implementasi', 'gernas', 'bbi']</t>
+          <t>['menindaklanjuti', 'arahan', 'presiden', 'wakil', 'presiden', 'mengangkat', 'potensi']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['menindaklanjuti', 'arah', 'presiden', 'wakil', 'presiden', 'angkat', 'potensi']</t>
         </is>
       </c>
     </row>
@@ -3499,34 +3924,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>21954</v>
+        <v>30532</v>
       </c>
       <c r="C86" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>mengorder lontong sayur melalui aplikasi grabfood sbg wujud apresiasi kepada grab indonesia yg terus mendukung gera</t>
+          <t>penandatanganan nota kesepahaman ini merupakan langkah awal pemulihan sekaligus pengembangan sektor pariwisata dan</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['mengorder', 'lontong', 'sayur', 'melalui', 'aplikasi', 'grabfood', 'sbg', 'wujud', 'apresiasi', 'kepada', 'grab', 'indonesia', 'yg', 'terus', 'mendukung', 'gera']</t>
+          <t>['penandatanganan', 'nota', 'kesepahaman', 'ini', 'merupakan', 'langkah', 'awal', 'pemulihan', 'sekaligus', 'pengembangan', 'sektor', 'pariwisata', 'dan']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['penandatanganan', 'nota', 'kesepahaman', 'ini', 'merupakan', 'langkah', 'awal', 'pemulihan', 'sekaligus', 'pengembangan', 'sektor', 'pariwisata', 'dan']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['mengorder', 'lontong', 'sayur', 'aplikasi', 'grabfood', 'sbg', 'wujud', 'apresiasi', 'grab', 'indonesia', 'mendukung', 'gera']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['order', 'lontong', 'sayur', 'aplikasi', 'grabfood', 'sbg', 'wujud', 'apresiasi', 'grab', 'indonesia', 'dukung', 'gera']</t>
+          <t>['penandatanganan', 'nota', 'kesepahaman', 'langkah', 'pemulihan', 'pengembangan', 'sektor', 'pariwisata']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['penandatanganan', 'nota', 'paham', 'langkah', 'pulih', 'kembang', 'sektor', 'pariwisata']</t>
         </is>
       </c>
     </row>
@@ -3535,34 +3965,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>21955</v>
+        <v>30533</v>
       </c>
       <c r="C87" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>orangorang seperti bli anom ini yang harus kita selamatkan lapangan kerjanya jangan sampai di tengah beban biaya</t>
+          <t>hari ini saya menyaksikanbali dan papua mulai menyatukan langkah menandatangani kesepakatan bersama antara dinas</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['orangorang', 'seperti', 'bli', 'anom', 'ini', 'yang', 'harus', 'kita', 'selamatkan', 'lapangan', 'kerjanya', 'jangan', 'sampai', 'di', 'tengah', 'beban', 'biaya']</t>
+          <t>['hari', 'ini', 'saya', 'menyaksikanbali', 'dan', 'papua', 'mulai', 'menyatukan', 'langkah', 'menandatangani', 'kesepakatan', 'bersama', 'antara', 'dinas']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['hari', 'ini', 'saya', 'menyaksikanbali', 'dan', 'papua', 'mulai', 'menyatukan', 'langkah', 'menandatangani', 'kesepakatan', 'bersama', 'antara', 'dinas']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['orangorang', 'bli', 'anom', 'selamatkan', 'lapangan', 'kerjanya', 'beban', 'biaya']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['orangorang', 'bli', 'anom', 'selamat', 'lapang', 'kerja', 'beban', 'biaya']</t>
+          <t>['menyaksikanbali', 'papua', 'menyatukan', 'langkah', 'menandatangani', 'kesepakatan', 'dinas']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['menyaksikanbali', 'papua', 'satu', 'langkah', 'menandatangani', 'sepakat', 'dinas']</t>
         </is>
       </c>
     </row>
@@ -3571,34 +4006,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>21956</v>
+        <v>30534</v>
       </c>
       <c r="C88" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t xml:space="preserve">berjalan menelusuri pantai sanur bertemu dengan bli anom yang terlihat sedang mencari ikanikan kecil di pinggir </t>
+          <t>dengan menawarkan wisata berbasis alam dan budaya serta mengedepankan kebersihan kesehatan keselamatan dan keber</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['berjalan', 'menelusuri', 'pantai', 'sanur', 'bertemu', 'dengan', 'bli', 'anom', 'yang', 'terlihat', 'sedang', 'mencari', 'ikanikan', 'kecil', 'di', 'pinggir']</t>
+          <t>['dengan', 'menawarkan', 'wisata', 'berbasis', 'alam', 'dan', 'budaya', 'serta', 'mengedepankan', 'kebersihan', 'kesehatan', 'keselamatan', 'dan', 'keber']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['dengan', 'menawarkan', 'wisata', 'berbasis', 'alam', 'dan', 'budaya', 'serta', 'mengedepankan', 'kebersihan', 'kesehatan', 'keselamatan', 'dan', 'keber']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['berjalan', 'menelusuri', 'pantai', 'sanur', 'bertemu', 'bli', 'anom', 'mencari', 'ikanikan', 'pinggir']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['jalan', 'telusur', 'pantai', 'sanur', 'temu', 'bli', 'anom', 'cari', 'ikanikan', 'pinggir']</t>
+          <t>['menawarkan', 'wisata', 'berbasis', 'alam', 'budaya', 'mengedepankan', 'kebersihan', 'kesehatan', 'keselamatan', 'keber']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['tawar', 'wisata', 'bas', 'alam', 'budaya', 'depan', 'bersih', 'sehat', 'selamat', 'keber']</t>
         </is>
       </c>
     </row>
@@ -3607,34 +4047,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>21957</v>
+        <v>30535</v>
       </c>
       <c r="C89" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>desa kutuh yang saya datangi ini awalnya merupakan desa miskin namun karena berhasil mengelola dana desa secarate</t>
+          <t>desa penglipuran mendapat predikat sebagai salah satu desa terbersih di dunia di tahun terdapat ribu wisa</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['desa', 'kutuh', 'yang', 'saya', 'datangi', 'ini', 'awalnya', 'merupakan', 'desa', 'miskin', 'namun', 'karena', 'berhasil', 'mengelola', 'dana', 'desa', 'secarate']</t>
+          <t>['desa', 'penglipuran', 'mendapat', 'predikat', 'sebagai', 'salah', 'satu', 'desa', 'terbersih', 'di', 'dunia', 'di', 'tahun', 'terdapat', 'ribu', 'wisa']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['desa', 'penglipuran', 'mendapat', 'predikat', 'sebagai', 'salah', 'satu', 'desa', 'terbersih', 'di', 'dunia', 'di', 'tahun', 'terdapat', 'ribu', 'wisa']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['desa', 'kutuh', 'datangi', 'desa', 'miskin', 'berhasil', 'mengelola', 'dana', 'desa', 'secarate']</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['desa', 'kutuh', 'datang', 'desa', 'miskin', 'hasil', 'kelola', 'dana', 'desa', 'secarate']</t>
+          <t>['desa', 'penglipuran', 'predikat', 'salah', 'desa', 'terbersih', 'dunia', 'ribu', 'wisa']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['desa', 'lipur', 'predikat', 'salah', 'desa', 'bersih', 'dunia', 'ribu', 'wisa']</t>
         </is>
       </c>
     </row>
@@ -3643,34 +4088,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>21958</v>
+        <v>30536</v>
       </c>
       <c r="C90" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>kita akan gerak cepat amp gerak bersama menghadirkan solusi untuk para pelaku dan pekerja di sektor pariwisata dan ek</t>
+          <t>mengunjungi desa adat penglipuran di kabupaten bangli yang sudah berkembang menjadi desa wisata desa ini terkenal</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['kita', 'akan', 'gerak', 'cepat', 'amp', 'gerak', 'bersama', 'menghadirkan', 'solusi', 'untuk', 'para', 'pelaku', 'dan', 'pekerja', 'di', 'sektor', 'pariwisata', 'dan', 'ek']</t>
+          <t>['mengunjungi', 'desa', 'adat', 'penglipuran', 'di', 'kabupaten', 'bangli', 'yang', 'sudah', 'berkembang', 'menjadi', 'desa', 'wisata', 'desa', 'ini', 'terkenal']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['mengunjungi', 'desa', 'adat', 'penglipuran', 'di', 'kabupaten', 'bangli', 'yang', 'sudah', 'berkembang', 'menjadi', 'desa', 'wisata', 'desa', 'ini', 'terkenal']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['gerak', 'cepat', 'gerak', 'menghadirkan', 'solusi', 'pelaku', 'pekerja', 'sektor', 'pariwisata', 'ek']</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['gerak', 'cepat', 'gerak', 'hadir', 'solusi', 'laku', 'kerja', 'sektor', 'pariwisata', 'ek']</t>
+          <t>['mengunjungi', 'desa', 'adat', 'penglipuran', 'kabupaten', 'bangli', 'berkembang', 'desa', 'wisata', 'desa', 'terkenal']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['unjung', 'desa', 'adat', 'lipur', 'kabupaten', 'bangli', 'kembang', 'desa', 'wisata', 'desa', 'kenal']</t>
         </is>
       </c>
     </row>
@@ -3679,34 +4129,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>21959</v>
+        <v>30537</v>
       </c>
       <c r="C91" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>saat ini kami masih menampung masukan dari berbagai pihak usulan pemerintah provinsi bali bersama kadin bali adala</t>
+          <t>makan malam di nasi ayam kedewatan ibu mangku nasi ayam legendaris di bali sudah ada sejak tahun yang lalu da</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['saat', 'ini', 'kami', 'masih', 'menampung', 'masukan', 'dari', 'berbagai', 'pihak', 'usulan', 'pemerintah', 'provinsi', 'bali', 'bersama', 'kadin', 'bali', 'adala']</t>
+          <t>['makan', 'malam', 'di', 'nasi', 'ayam', 'kedewatan', 'ibu', 'mangku', 'nasi', 'ayam', 'legendaris', 'di', 'bali', 'sudah', 'ada', 'sejak', 'tahun', 'yang', 'lalu', 'da']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['makan', 'malam', 'di', 'nasi', 'ayam', 'kedewatan', 'ibu', 'memangku', 'nasi', 'ayam', 'legendaris', 'di', 'bali', 'sudah', 'ada', 'sejak', 'tahun', 'yang', 'lalu', 'dan']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['menampung', 'masukan', 'usulan', 'pemerintah', 'provinsi', 'bali', 'kadin', 'bali', 'adala']</t>
+          <t>&lt;FreqDist with 17 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['tampung', 'masuk', 'usul', 'perintah', 'provinsi', 'bal', 'kadin', 'bal', 'adala']</t>
+          <t>['makan', 'malam', 'nasi', 'ayam', 'kedewatan', 'memangku', 'nasi', 'ayam', 'legendaris', 'bali']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['makan', 'malam', 'nasi', 'ayam', 'kedewatan', 'memang', 'nasi', 'ayam', 'legendaris', 'bal']</t>
         </is>
       </c>
     </row>
@@ -3715,34 +4170,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>21960</v>
+        <v>30538</v>
       </c>
       <c r="C92" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t xml:space="preserve">pagi ini setibanya di bali melakukan pertemuan dengan gubernur bali  wayan koster dan wakil gubernur bali cok </t>
+          <t>ini adalah bentuk kolaborasi antara pemerintah dan badan usaha bergerak bersama mempercepat penanganan covid da</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['pagi', 'ini', 'setibanya', 'di', 'bali', 'melakukan', 'pertemuan', 'dengan', 'gubernur', 'bali', 'wayan', 'koster', 'dan', 'wakil', 'gubernur', 'bali', 'cok']</t>
+          <t>['ini', 'adalah', 'bentuk', 'kolaborasi', 'antara', 'pemerintah', 'dan', 'badan', 'usaha', 'bergerak', 'bersama', 'mempercepat', 'penanganan', 'covid', 'da']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
+          <t>['ini', 'adalah', 'bentuk', 'kolaborasi', 'antara', 'pemerintah', 'dan', 'badan', 'usaha', 'bergerak', 'bersama', 'mempercepat', 'penanganan', 'covid', 'dan']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['pagi', 'bali', 'pertemuan', 'gubernur', 'bali', 'wayan', 'koster', 'wakil', 'gubernur', 'bali', 'cok']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['pagi', 'bal', 'temu', 'gubernur', 'bal', 'wayan', 'koster', 'wakil', 'gubernur', 'bal', 'cok']</t>
+          <t>['bentuk', 'kolaborasi', 'pemerintah', 'badan', 'usaha', 'bergerak', 'mempercepat', 'penanganan', 'covid']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['bentuk', 'kolaborasi', 'perintah', 'badan', 'usaha', 'gerak', 'cepat', 'tangan', 'covid']</t>
         </is>
       </c>
     </row>
@@ -3751,34 +4211,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>21961</v>
+        <v>30539</v>
       </c>
       <c r="C93" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>semangat untuk temanteman nakes kalianlah pahlawan di masa kini</t>
+          <t>areanya yang luas bisa menampung banyak mobil dalam waktu yang bersamaan bisa melayani banyak pasien dalam waktu singkat</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['semangat', 'untuk', 'temanteman', 'nakes', 'kalianlah', 'pahlawan', 'di', 'masa', 'kini']</t>
+          <t>['areanya', 'yang', 'luas', 'bisa', 'menampung', 'banyak', 'mobil', 'dalam', 'waktu', 'yang', 'bersamaan', 'bisa', 'melayani', 'banyak', 'pasien', 'dalam', 'waktu', 'singkat']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['areanya', 'yang', 'luas', 'bisa', 'menampung', 'banyak', 'mobil', 'dalam', 'waktu', 'yang', 'bersamaan', 'bisa', 'melayani', 'banyak', 'pasien', 'dalam', 'waktu', 'singkat']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['semangat', 'temanteman', 'nakes', 'kalianlah', 'pahlawan']</t>
+          <t>&lt;FreqDist with 13 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['semangat', 'temanteman', 'nakes', 'kalian', 'pahlawan']</t>
+          <t>['areanya', 'luas', 'menampung', 'mobil', 'bersamaan', 'melayani', 'pasien', 'singkat']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['area', 'luas', 'tampung', 'mobil', 'sama', 'layan', 'pasien', 'singkat']</t>
         </is>
       </c>
     </row>
@@ -3787,34 +4252,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>21962</v>
+        <v>30540</v>
       </c>
       <c r="C94" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t xml:space="preserve">terima kasih saja rasanya tidak cukup namun saya berharap melalui kebersamaan ini kita bisa saling menyemangati </t>
+          <t>meninjau lokasi yang nantinya akan dijadikan sebagai tempat pemberian vaksin dengan model drive thru atau cukup dar</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'saja', 'rasanya', 'tidak', 'cukup', 'namun', 'saya', 'berharap', 'melalui', 'kebersamaan', 'ini', 'kita', 'bisa', 'saling', 'menyemangati']</t>
+          <t>['meninjau', 'lokasi', 'yang', 'nantinya', 'akan', 'dijadikan', 'sebagai', 'tempat', 'pemberian', 'vaksin', 'dengan', 'model', 'drive', 'thru', 'atau', 'cukup', 'dar']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['meninjau', 'lokasi', 'yang', 'nantinya', 'akan', 'dijadikan', 'sebagai', 'tempat', 'pemberian', 'vaksin', 'dengan', 'model', 'drive', 'thru', 'atau', 'cukup', 'dar']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'berharap', 'kebersamaan', 'menyemangati']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'harap', 'sama', 'semangat']</t>
+          <t>['meninjau', 'lokasi', 'dijadikan', 'pemberian', 'vaksin', 'model', 'drive', 'thru', 'dar']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['tinjau', 'lokasi', 'jadi', 'beri', 'vaksin', 'model', 'drive', 'thru', 'dar']</t>
         </is>
       </c>
     </row>
@@ -3823,34 +4293,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>21963</v>
+        <v>30541</v>
       </c>
       <c r="C95" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t xml:space="preserve">saya mengetahui betul bagaimana lelahnya para nakes yang berada di garda terdepan dan di benteng terakhir melawan </t>
+          <t>hari ini juga di bali saya akan meninjau kesiapan vaksinasi gratis untuk para pelaku pariwisata dan ekonomi kreati</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['saya', 'mengetahui', 'betul', 'bagaimana', 'lelahnya', 'para', 'nakes', 'yang', 'berada', 'di', 'garda', 'terdepan', 'dan', 'di', 'benteng', 'terakhir', 'melawan']</t>
+          <t>['hari', 'ini', 'juga', 'di', 'bali', 'saya', 'akan', 'meninjau', 'kesiapan', 'vaksinasi', 'gratis', 'untuk', 'para', 'pelaku', 'pariwisata', 'dan', 'ekonomi', 'kreati']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['hari', 'ini', 'juga', 'di', 'bali', 'saya', 'akan', 'meninjau', 'kesiapan', 'vaksinasi', 'gratis', 'untuk', 'para', 'pelaku', 'pariwisata', 'dan', 'ekonomi', 'kreati']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['lelahnya', 'nakes', 'garda', 'terdepan', 'benteng', 'melawan']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['lelah', 'nakes', 'garda', 'depan', 'benteng', 'lawan']</t>
+          <t>['bali', 'meninjau', 'kesiapan', 'vaksinasi', 'gratis', 'pelaku', 'pariwisata', 'ekonomi', 'kreati']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['bal', 'tinjau', 'kesiap', 'vaksinasi', 'gratis', 'laku', 'pariwisata', 'ekonomi', 'kreati']</t>
         </is>
       </c>
     </row>
@@ -3859,34 +4334,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>21964</v>
+        <v>30542</v>
       </c>
       <c r="C96" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>mengajak temanteman tenaga kesehatan untuk refreshing dan melepas penat sejenak mengunjungi faunaland ancol sala</t>
+          <t>bentuk gercep dan geber gerak cepat dan gerak bersama pemerintah hari ini pemberian vaksinasi kepada kru pesawat</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['mengajak', 'temanteman', 'tenaga', 'kesehatan', 'untuk', 'refreshing', 'dan', 'melepas', 'penat', 'sejenak', 'mengunjungi', 'faunaland', 'ancol', 'sala']</t>
+          <t>['bentuk', 'gercep', 'dan', 'geber', 'gerak', 'cepat', 'dan', 'gerak', 'bersama', 'pemerintah', 'hari', 'ini', 'pemberian', 'vaksinasi', 'kepada', 'kru', 'pesawat']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['bentuk', 'gerak, cepat', 'dan', 'geber', 'gerak', 'cepat', 'dan', 'gerak', 'bersama', 'pemerintah', 'hari', 'ini', 'pemberian', 'vaksinasi', 'kepada', 'kru', 'pesawat']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['mengajak', 'temanteman', 'tenaga', 'kesehatan', 'refreshing', 'melepas', 'penat', 'mengunjungi', 'faunaland', 'ancol', 'sala']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['ajak', 'temanteman', 'tenaga', 'sehat', 'refreshing', 'lepas', 'penat', 'unjung', 'faunaland', 'ancol', 'sala']</t>
+          <t>['bentuk', 'gerak, cepat', 'geber', 'gerak', 'cepat', 'gerak', 'pemerintah', 'pemberian', 'vaksinasi', 'kru', 'pesawat']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['bentuk', 'gerak cepat', 'geber', 'gerak', 'cepat', 'gerak', 'perintah', 'beri', 'vaksinasi', 'kru', 'pesawat']</t>
         </is>
       </c>
     </row>
@@ -3895,34 +4375,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>21965</v>
+        <v>30543</v>
       </c>
       <c r="C97" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>harapannya kita dapat terus meningkatkan  testing tracing dan treating menekan wabah covid mendukung keba</t>
+          <t>kembali di bali kunjungan saya kali ini adalah untuk meninjau kesiapan vaksinasi gratis bagi para pelaku pariwisat</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['harapannya', 'kita', 'dapat', 'terus', 'meningkatkan', 'testing', 'tracing', 'dan', 'treating', 'menekan', 'wabah', 'covid', 'mendukung', 'keba']</t>
+          <t>['kembali', 'di', 'bali', 'kunjungan', 'saya', 'kali', 'ini', 'adalah', 'untuk', 'meninjau', 'kesiapan', 'vaksinasi', 'gratis', 'bagi', 'para', 'pelaku', 'pariwisat']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['kembali', 'di', 'bali', 'kunjungan', 'saya', 'kali', 'ini', 'adalah', 'untuk', 'meninjau', 'kesiapan', 'vaksinasi', 'gratis', 'bagi', 'para', 'pelaku', 'pariwisat']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['harapannya', 'meningkatkan', 'testing', 'tracing', 'treating', 'menekan', 'wabah', 'covid', 'mendukung', 'keba']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['harap', 'tingkat', 'testing', 'tracing', 'treating', 'tekan', 'wabah', 'covid', 'dukung', 'keba']</t>
+          <t>['bali', 'kunjungan', 'kali', 'meninjau', 'kesiapan', 'vaksinasi', 'gratis', 'pelaku', 'pariwisat']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['bal', 'kunjung', 'kali', 'tinjau', 'kesiap', 'vaksinasi', 'gratis', 'laku', 'pariwisat']</t>
         </is>
       </c>
     </row>
@@ -3931,34 +4416,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>21966</v>
+        <v>30544</v>
       </c>
       <c r="C98" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>genose  inovasi health tech besutan para peneliti ugm mampu mendeteksi virus covid dalam waktu cepat alat</t>
+          <t>kami yakin kebijakan yang berbasis data akan bisa tereksekusi dengan lebih tepat sasaran tepat manfaat tepat wakt</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['genose', 'inovasi', 'health', 'tech', 'besutan', 'para', 'peneliti', 'ugm', 'mampu', 'mendeteksi', 'virus', 'covid', 'dalam', 'waktu', 'cepat', 'alat']</t>
+          <t>['kami', 'yakin', 'kebijakan', 'yang', 'berbasis', 'data', 'akan', 'bisa', 'tereksekusi', 'dengan', 'lebih', 'tepat', 'sasaran', 'tepat', 'manfaat', 'tepat', 'wakt']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['kami', 'yakin', 'kebijakan', 'yang', 'berbasis', 'data', 'akan', 'bisa', 'tereksekusi', 'dengan', 'lebih', 'tepat', 'sasaran', 'tepat', 'manfaat', 'tepat', 'wakt']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['genose', 'inovasi', 'health', 'tech', 'besutan', 'peneliti', 'ugm', 'mendeteksi', 'virus', 'covid', 'cepat', 'alat']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['genose', 'inovasi', 'health', 'tech', 'besut', 'teliti', 'ugm', 'deteksi', 'virus', 'covid', 'cepat', 'alat']</t>
+          <t>['kebijakan', 'berbasis', 'data', 'tereksekusi', 'sasaran', 'manfaat', 'wakt']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['bijak', 'bas', 'data', 'eksekusi', 'sasar', 'manfaat', 'wakt']</t>
         </is>
       </c>
     </row>
@@ -3967,34 +4457,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>21967</v>
+        <v>30545</v>
       </c>
       <c r="C99" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>serah terima alat pendeteksi covid produksi anak bangsa genose  dari kementerian riset dan teknologi badan</t>
+          <t>kami juga sepakat untuk sharing data data dari sistem informasi ketenagakerjaan sisnaker akan dikolaborasikan de</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['serah', 'terima', 'alat', 'pendeteksi', 'covid', 'produksi', 'anak', 'bangsa', 'genose', 'dari', 'kementerian', 'riset', 'dan', 'teknologi', 'badan']</t>
+          <t>['kami', 'juga', 'sepakat', 'untuk', 'sharing', 'data', 'data', 'dari', 'sistem', 'informasi', 'ketenagakerjaan', 'sisnaker', 'akan', 'dikolaborasikan', 'de']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['kami', 'juga', 'sepakat', 'untuk', 'sharing', 'data', 'data', 'dari', 'sistem', 'informasi', 'ketenagakerjaan', 'sisnaker', 'akan', 'dikolaborasikan', 'deh']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['serah', 'terima', 'alat', 'pendeteksi', 'covid', 'produksi', 'anak', 'bangsa', 'genose', 'kementerian', 'riset', 'teknologi', 'badan']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['serah', 'terima', 'alat', 'deteksi', 'covid', 'produksi', 'anak', 'bangsa', 'genose', 'menteri', 'riset', 'teknologi', 'badan']</t>
+          <t>['sepakat', 'sharing', 'data', 'data', 'sistem', 'informasi', 'ketenagakerjaan', 'sisnaker', 'dikolaborasikan', 'deh']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['sepakat', 'sharing', 'data', 'data', 'sistem', 'informasi', 'ketenagakerjaan', 'sisnaker', 'kolaborasi', 'deh']</t>
         </is>
       </c>
     </row>
@@ -4003,70 +4498,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>21968</v>
+        <v>30546</v>
       </c>
       <c r="C100" t="n">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>terkait pengembangan sdm di belitung kita akan adakan pelatihan untuk meningkatkan keterampilan masyarakat di sana</t>
+          <t>saya mengapresiasi sekali hadirnya blk komunitas di tengah masyarakat memberikan peningkatan layanan bagi sektor pa</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['terkait', 'pengembangan', 'sdm', 'di', 'belitung', 'kita', 'akan', 'adakan', 'pelatihan', 'untuk', 'meningkatkan', 'keterampilan', 'masyarakat', 'di', 'sana']</t>
+          <t>['saya', 'mengapresiasi', 'sekali', 'hadirnya', 'blk', 'komunitas', 'di', 'tengah', 'masyarakat', 'memberikan', 'peningkatan', 'layanan', 'bagi', 'sektor', 'pa']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['saya', 'mengapresiasi', 'sekali', 'hadirnya', 'balik', 'komunitas', 'di', 'tengah', 'masyarakat', 'memberikan', 'peningkatan', 'layanan', 'bagi', 'sektor', 'pak']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['terkait', 'pengembangan', 'sdm', 'belitung', 'adakan', 'pelatihan', 'meningkatkan', 'keterampilan', 'masyarakat']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['kait', 'kembang', 'sdm', 'belitung', 'adakan', 'latih', 'tingkat', 'terampil', 'masyarakat']</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>21969</v>
-      </c>
-      <c r="C101" t="n">
-        <v>266</v>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>untuk sports tourism pariwisata olahraga belitung siap untuk menggelar ajang indonesia triathlon series yang aka</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>['untuk', 'sports', 'tourism', 'pariwisata', 'olahraga', 'belitung', 'siap', 'untuk', 'menggelar', 'ajang', 'indonesia', 'triathlon', 'series', 'yang', 'aka']</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>['sports', 'tourism', 'pariwisata', 'olahraga', 'belitung', 'menggelar', 'ajang', 'indonesia', 'triathlon', 'series', 'aka']</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>['sports', 'tourism', 'pariwisata', 'olahraga', 'belitung', 'gelar', 'ajang', 'indonesia', 'triathlon', 'series', 'aka']</t>
+          <t>['mengapresiasi', 'hadirnya', 'komunitas', 'masyarakat', 'peningkatan', 'layanan', 'sektor']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['apresiasi', 'hadir', 'komunitas', 'masyarakat', 'tingkat', 'layan', 'sektor']</t>
         </is>
       </c>
     </row>
